--- a/input_data/abutments_fired/abutments_fired_info.xlsx
+++ b/input_data/abutments_fired/abutments_fired_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/abutments_fired/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/abutments_fired/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D5BB2C-52AF-2041-904B-181911CC59B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F5512-4738-5648-9F0B-C59D1E4B3C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="228">
   <si>
     <t>Тип</t>
   </si>
@@ -58,13 +58,34 @@
     <t>ПЛАН</t>
   </si>
   <si>
-    <t>25 янв.</t>
-  </si>
-  <si>
-    <t>26 янв.</t>
-  </si>
-  <si>
-    <t>27 янв.</t>
+    <t>31 янв.</t>
+  </si>
+  <si>
+    <t>01 февр.</t>
+  </si>
+  <si>
+    <t>02 февр.</t>
+  </si>
+  <si>
+    <t>03 февр.</t>
+  </si>
+  <si>
+    <t>04 февр.</t>
+  </si>
+  <si>
+    <t>05 февр.</t>
+  </si>
+  <si>
+    <t>06 февр.</t>
+  </si>
+  <si>
+    <t>07 февр.</t>
+  </si>
+  <si>
+    <t>08 февр.</t>
+  </si>
+  <si>
+    <t>09 февр.</t>
   </si>
   <si>
     <t>ОСТ</t>
@@ -689,8 +710,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0&quot; янв.&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="00&quot; февр.&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot; янв.&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -818,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -847,6 +869,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -856,10 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,7 +1247,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AE119"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A3"/>
@@ -1252,62 +1277,63 @@
     <col min="26" max="26" width="6.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="7.75" style="1" customWidth="1"/>
-    <col min="29" max="31" width="13.75" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="13.75" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="38" width="15.25" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:38" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="18"/>
+      <c r="AB1" s="19"/>
       <c r="AC1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1317,155 +1343,204 @@
       <c r="AE1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="19" t="s">
-        <v>19</v>
+    <row r="2" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+    <row r="3" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
     </row>
-    <row r="4" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I4" s="5">
         <v>190</v>
@@ -1526,37 +1601,44 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
     </row>
-    <row r="5" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I5" s="5">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="J5" s="5">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -1571,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="P5" s="5">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -1611,31 +1693,38 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
     </row>
-    <row r="6" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I6" s="5">
         <v>101</v>
@@ -1694,46 +1783,53 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
     </row>
-    <row r="7" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I7" s="5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J7" s="5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M7" s="5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N7" s="5">
         <v>0</v>
@@ -1757,53 +1853,68 @@
         <v>0</v>
       </c>
       <c r="U7" s="5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V7" s="5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W7" s="5">
         <v>0</v>
       </c>
       <c r="X7" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y7" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z7" s="5">
         <v>0</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="AA7" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>2</v>
+      </c>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="11">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
     </row>
-    <row r="8" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I8" s="5">
         <v>53</v>
@@ -1864,31 +1975,38 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
     </row>
-    <row r="9" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I9" s="5">
         <v>89</v>
@@ -1949,82 +2067,89 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
     </row>
-    <row r="10" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I10" s="5">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="J10" s="5">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M10" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N10" s="5">
         <v>5</v>
       </c>
       <c r="O10" s="5">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P10" s="5">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q10" s="5">
         <v>0</v>
       </c>
       <c r="R10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" s="5">
         <v>0</v>
       </c>
       <c r="U10" s="5">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="V10" s="5">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W10" s="5">
         <v>0</v>
       </c>
       <c r="X10" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>10</v>
       </c>
       <c r="Z10" s="5">
         <v>5</v>
@@ -2034,82 +2159,89 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
     </row>
-    <row r="11" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1686</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1686</v>
+        <v>36</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1615</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1615</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="M11" s="5">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
       </c>
-      <c r="O11" s="10">
-        <v>1345</v>
-      </c>
-      <c r="P11" s="10">
-        <v>1345</v>
+      <c r="O11" s="12">
+        <v>1312</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1312</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="S11" s="5">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="T11" s="5">
         <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="V11" s="5">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
       </c>
       <c r="X11" s="5">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="Y11" s="5">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="Z11" s="5">
         <v>0</v>
@@ -2119,55 +2251,62 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
     </row>
-    <row r="12" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1112</v>
-      </c>
-      <c r="J12" s="10">
-        <v>1106</v>
+        <v>36</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1149</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1143</v>
       </c>
       <c r="K12" s="5">
         <v>6</v>
       </c>
       <c r="L12" s="5">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M12" s="5">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
       </c>
       <c r="O12" s="5">
-        <v>792</v>
+        <v>837</v>
       </c>
       <c r="P12" s="5">
-        <v>792</v>
+        <v>837</v>
       </c>
       <c r="Q12" s="5">
         <v>0</v>
@@ -2182,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="V12" s="5">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="W12" s="5">
         <v>6</v>
       </c>
       <c r="X12" s="5">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Y12" s="5">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z12" s="5">
         <v>0</v>
@@ -2204,31 +2343,38 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
     </row>
-    <row r="13" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -2287,31 +2433,38 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
     </row>
-    <row r="14" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I14" s="5">
         <v>710</v>
@@ -2323,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M14" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N14" s="5">
         <v>0</v>
@@ -2359,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="X14" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
       </c>
       <c r="Z14" s="5">
         <v>0</v>
@@ -2372,82 +2525,89 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
     </row>
-    <row r="15" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I15" s="5">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="J15" s="5">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="K15" s="5">
         <v>1</v>
       </c>
       <c r="L15" s="5">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M15" s="5">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N15" s="5">
         <v>0</v>
       </c>
       <c r="O15" s="5">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="P15" s="5">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="Q15" s="5">
         <v>1</v>
       </c>
       <c r="R15" s="5">
+        <v>36</v>
+      </c>
+      <c r="S15" s="5">
+        <v>36</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>103</v>
+      </c>
+      <c r="V15" s="5">
+        <v>103</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
         <v>34</v>
       </c>
-      <c r="S15" s="5">
+      <c r="Y15" s="5">
         <v>34</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>107</v>
-      </c>
-      <c r="V15" s="5">
-        <v>107</v>
-      </c>
-      <c r="W15" s="5">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5">
-        <v>30</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>30</v>
       </c>
       <c r="Z15" s="5">
         <v>0</v>
@@ -2457,82 +2617,89 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
     </row>
-    <row r="16" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="10">
-        <v>1203</v>
-      </c>
-      <c r="J16" s="10">
-        <v>1203</v>
+        <v>36</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1150</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1150</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="M16" s="5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
       </c>
-      <c r="O16" s="10">
-        <v>1105</v>
-      </c>
-      <c r="P16" s="10">
-        <v>1105</v>
+      <c r="O16" s="12">
+        <v>1099</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1099</v>
       </c>
       <c r="Q16" s="5">
         <v>0</v>
       </c>
       <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="S16" s="5">
+        <v>6</v>
       </c>
       <c r="T16" s="5">
         <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="V16" s="5">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="W16" s="5">
         <v>0</v>
       </c>
       <c r="X16" s="5">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="Y16" s="5">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="Z16" s="5">
         <v>0</v>
@@ -2542,82 +2709,89 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
     </row>
-    <row r="17" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I17" s="5">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J17" s="5">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4</v>
       </c>
       <c r="N17" s="5">
         <v>1</v>
       </c>
       <c r="O17" s="5">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P17" s="5">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="5">
         <v>0</v>
       </c>
       <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S17" s="5">
+        <v>2</v>
       </c>
       <c r="T17" s="5">
         <v>0</v>
       </c>
       <c r="U17" s="5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V17" s="5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W17" s="5">
         <v>0</v>
       </c>
       <c r="X17" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>2</v>
       </c>
       <c r="Z17" s="5">
         <v>1</v>
@@ -2627,64 +2801,71 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
     </row>
-    <row r="18" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I18" s="5">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J18" s="5">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
       </c>
       <c r="O18" s="5">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="P18" s="5">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="Q18" s="5">
         <v>0</v>
       </c>
       <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S18" s="5">
+        <v>2</v>
       </c>
       <c r="T18" s="5">
         <v>0</v>
@@ -2712,31 +2893,38 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
     </row>
-    <row r="19" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I19" s="5">
         <v>617</v>
@@ -2797,46 +2985,53 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
     </row>
-    <row r="20" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1036</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1036</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <v>24</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1038</v>
-      </c>
-      <c r="J20" s="10">
-        <v>1038</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>30</v>
-      </c>
       <c r="M20" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N20" s="5">
         <v>0</v>
@@ -2860,19 +3055,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V20" s="5">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W20" s="5">
         <v>0</v>
       </c>
       <c r="X20" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y20" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z20" s="5">
         <v>0</v>
@@ -2882,31 +3077,38 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
     </row>
-    <row r="21" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I21" s="5">
         <v>832</v>
@@ -2967,37 +3169,44 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
     </row>
-    <row r="22" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I22" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J22" s="5">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K22" s="5">
         <v>4</v>
@@ -3030,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V22" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W22" s="5">
         <v>0</v>
@@ -3052,31 +3261,38 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
     </row>
-    <row r="23" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I23" s="5">
         <v>303</v>
@@ -3137,31 +3353,38 @@
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
     </row>
-    <row r="24" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I24" s="5">
         <v>689</v>
@@ -3222,46 +3445,53 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
     </row>
-    <row r="25" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I25" s="5">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J25" s="5">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K25" s="5">
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M25" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N25" s="5">
         <v>0</v>
@@ -3285,19 +3515,19 @@
         <v>0</v>
       </c>
       <c r="U25" s="5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V25" s="5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W25" s="5">
         <v>0</v>
       </c>
       <c r="X25" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y25" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z25" s="5">
         <v>0</v>
@@ -3307,82 +3537,89 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
     </row>
-    <row r="26" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I26" s="5">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J26" s="5">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K26" s="5">
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="M26" s="5">
+        <v>8</v>
       </c>
       <c r="N26" s="5">
         <v>0</v>
       </c>
       <c r="O26" s="5">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P26" s="5">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="5">
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S26" s="5">
+        <v>2</v>
       </c>
       <c r="T26" s="5">
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V26" s="5">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="W26" s="5">
         <v>0</v>
       </c>
       <c r="X26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>6</v>
       </c>
       <c r="Z26" s="5">
         <v>0</v>
@@ -3392,31 +3629,38 @@
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
     </row>
-    <row r="27" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I27" s="5">
         <v>212</v>
@@ -3472,36 +3716,51 @@
       <c r="Z27" s="5">
         <v>0</v>
       </c>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
+      <c r="AA27" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="10">
+        <v>2</v>
+      </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
     </row>
-    <row r="28" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I28" s="5">
         <v>128</v>
@@ -3562,46 +3821,53 @@
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
     </row>
-    <row r="29" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I29" s="5">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="J29" s="5">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K29" s="5">
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M29" s="5">
+        <v>5</v>
       </c>
       <c r="N29" s="5">
         <v>0</v>
@@ -3625,19 +3891,19 @@
         <v>0</v>
       </c>
       <c r="U29" s="5">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V29" s="5">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="W29" s="5">
         <v>0</v>
       </c>
       <c r="X29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>5</v>
       </c>
       <c r="Z29" s="5">
         <v>0</v>
@@ -3647,31 +3913,38 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
     </row>
-    <row r="30" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I30" s="5">
         <v>31</v>
@@ -3732,46 +4005,53 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
     </row>
-    <row r="31" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I31" s="5">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J31" s="5">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K31" s="5">
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M31" s="5">
+        <v>5</v>
       </c>
       <c r="N31" s="5">
         <v>0</v>
@@ -3795,19 +4075,19 @@
         <v>0</v>
       </c>
       <c r="U31" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="V31" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="W31" s="5">
         <v>0</v>
       </c>
       <c r="X31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>5</v>
       </c>
       <c r="Z31" s="5">
         <v>0</v>
@@ -3817,46 +4097,53 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
     </row>
-    <row r="32" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I32" s="5">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="J32" s="5">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="K32" s="5">
         <v>1</v>
       </c>
       <c r="L32" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M32" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
@@ -3880,19 +4167,19 @@
         <v>0</v>
       </c>
       <c r="U32" s="5">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="V32" s="5">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W32" s="5">
         <v>0</v>
       </c>
       <c r="X32" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y32" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z32" s="5">
         <v>0</v>
@@ -3902,46 +4189,53 @@
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
     </row>
-    <row r="33" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I33" s="5">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J33" s="5">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K33" s="5">
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M33" s="5">
+        <v>5</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
@@ -3965,19 +4259,19 @@
         <v>0</v>
       </c>
       <c r="U33" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V33" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W33" s="5">
         <v>0</v>
       </c>
       <c r="X33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>5</v>
       </c>
       <c r="Z33" s="5">
         <v>0</v>
@@ -3987,31 +4281,38 @@
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
     </row>
-    <row r="34" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I34" s="5">
         <v>657</v>
@@ -4072,31 +4373,38 @@
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
     </row>
-    <row r="35" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I35" s="5">
         <v>72</v>
@@ -4157,31 +4465,38 @@
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
     </row>
-    <row r="36" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I36" s="5">
         <v>67</v>
@@ -4240,31 +4555,38 @@
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
     </row>
-    <row r="37" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I37" s="5">
         <v>59</v>
@@ -4323,64 +4645,71 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
     </row>
-    <row r="38" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I38" s="5">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="J38" s="5">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="K38" s="5">
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M38" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N38" s="5">
         <v>0</v>
       </c>
       <c r="O38" s="5">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="P38" s="5">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="Q38" s="5">
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S38" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T38" s="5">
         <v>0</v>
@@ -4408,64 +4737,71 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
     </row>
-    <row r="39" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I39" s="5">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="J39" s="5">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K39" s="5">
         <v>0</v>
       </c>
       <c r="L39" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M39" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N39" s="5">
         <v>0</v>
       </c>
       <c r="O39" s="5">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="P39" s="5">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="Q39" s="5">
         <v>0</v>
       </c>
       <c r="R39" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S39" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T39" s="5">
         <v>0</v>
@@ -4493,31 +4829,38 @@
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
     </row>
-    <row r="40" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I40" s="5">
         <v>26</v>
@@ -4576,46 +4919,53 @@
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
     </row>
-    <row r="41" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I41" s="5">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="J41" s="5">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="K41" s="5">
         <v>0</v>
       </c>
       <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="M41" s="5">
+        <v>13</v>
       </c>
       <c r="N41" s="5">
         <v>0</v>
@@ -4639,19 +4989,19 @@
         <v>0</v>
       </c>
       <c r="U41" s="5">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="V41" s="5">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="W41" s="5">
         <v>0</v>
       </c>
       <c r="X41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="6">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>13</v>
       </c>
       <c r="Z41" s="5">
         <v>0</v>
@@ -4661,36 +5011,43 @@
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
     </row>
-    <row r="42" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="10">
+        <v>36</v>
+      </c>
+      <c r="I42" s="12">
         <v>1395</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="12">
         <v>1395</v>
       </c>
       <c r="K42" s="5">
@@ -4705,10 +5062,10 @@
       <c r="N42" s="5">
         <v>0</v>
       </c>
-      <c r="O42" s="10">
+      <c r="O42" s="12">
         <v>1308</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42" s="12">
         <v>1308</v>
       </c>
       <c r="Q42" s="5">
@@ -4746,31 +5103,38 @@
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
     </row>
-    <row r="43" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I43" s="5">
         <v>144</v>
@@ -4831,31 +5195,38 @@
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
     </row>
-    <row r="44" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I44" s="5">
         <v>881</v>
@@ -4867,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>15</v>
-      </c>
-      <c r="M44" s="5">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
       </c>
       <c r="N44" s="5">
         <v>0</v>
@@ -4903,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="X44" s="5">
-        <v>15</v>
-      </c>
-      <c r="Y44" s="5">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>0</v>
       </c>
       <c r="Z44" s="5">
         <v>0</v>
@@ -4916,31 +5287,38 @@
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
-    <row r="45" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I45" s="5">
         <v>162</v>
@@ -5001,31 +5379,38 @@
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
     </row>
-    <row r="46" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I46" s="5">
         <v>421</v>
@@ -5086,82 +5471,89 @@
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
     </row>
-    <row r="47" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="10">
-        <v>1857</v>
-      </c>
-      <c r="J47" s="10">
-        <v>1806</v>
+        <v>36</v>
+      </c>
+      <c r="I47" s="12">
+        <v>1742</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1691</v>
       </c>
       <c r="K47" s="5">
         <v>51</v>
       </c>
       <c r="L47" s="5">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="M47" s="5">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="N47" s="5">
-        <v>60</v>
-      </c>
-      <c r="O47" s="10">
-        <v>1218</v>
-      </c>
-      <c r="P47" s="10">
-        <v>1218</v>
+        <v>55</v>
+      </c>
+      <c r="O47" s="12">
+        <v>1187</v>
+      </c>
+      <c r="P47" s="12">
+        <v>1187</v>
       </c>
       <c r="Q47" s="5">
         <v>0</v>
       </c>
       <c r="R47" s="5">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="S47" s="5">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="T47" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U47" s="5">
-        <v>639</v>
+        <v>555</v>
       </c>
       <c r="V47" s="5">
-        <v>588</v>
+        <v>504</v>
       </c>
       <c r="W47" s="5">
         <v>51</v>
       </c>
       <c r="X47" s="5">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="Y47" s="5">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="Z47" s="5">
         <v>15</v>
@@ -5171,82 +5563,89 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
     </row>
-    <row r="48" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="10">
-        <v>2414</v>
-      </c>
-      <c r="J48" s="10">
-        <v>2357</v>
+        <v>36</v>
+      </c>
+      <c r="I48" s="12">
+        <v>2404</v>
+      </c>
+      <c r="J48" s="12">
+        <v>2347</v>
       </c>
       <c r="K48" s="5">
         <v>57</v>
       </c>
       <c r="L48" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M48" s="5">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N48" s="5">
-        <v>10</v>
-      </c>
-      <c r="O48" s="10">
+        <v>20</v>
+      </c>
+      <c r="O48" s="12">
         <v>1793</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="12">
         <v>1786</v>
       </c>
       <c r="Q48" s="5">
         <v>7</v>
       </c>
       <c r="R48" s="5">
-        <v>25</v>
-      </c>
-      <c r="S48" s="5">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="S48" s="6">
+        <v>0</v>
       </c>
       <c r="T48" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U48" s="5">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="V48" s="5">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="W48" s="5">
         <v>50</v>
       </c>
       <c r="X48" s="5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Y48" s="5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Z48" s="5">
         <v>0</v>
@@ -5256,82 +5655,89 @@
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
     </row>
-    <row r="49" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I49" s="5">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="J49" s="5">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="K49" s="5">
         <v>7</v>
       </c>
       <c r="L49" s="5">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="M49" s="5">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="N49" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O49" s="5">
-        <v>597</v>
+        <v>456</v>
       </c>
       <c r="P49" s="5">
-        <v>595</v>
+        <v>454</v>
       </c>
       <c r="Q49" s="5">
         <v>2</v>
       </c>
       <c r="R49" s="5">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="S49" s="5">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="T49" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U49" s="5">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="V49" s="5">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="W49" s="5">
         <v>5</v>
       </c>
       <c r="X49" s="5">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="Y49" s="5">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="Z49" s="5">
         <v>0</v>
@@ -5341,31 +5747,38 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
     </row>
-    <row r="50" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I50" s="5">
         <v>541</v>
@@ -5426,31 +5839,38 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
     </row>
-    <row r="51" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I51" s="5">
         <v>237</v>
@@ -5511,46 +5931,53 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
     </row>
-    <row r="52" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I52" s="5">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J52" s="5">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K52" s="5">
         <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M52" s="5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -5574,19 +6001,19 @@
         <v>0</v>
       </c>
       <c r="U52" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V52" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="W52" s="5">
         <v>0</v>
       </c>
       <c r="X52" s="5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y52" s="5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Z52" s="5">
         <v>0</v>
@@ -5596,82 +6023,89 @@
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
     </row>
-    <row r="53" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I53" s="5">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="J53" s="5">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="K53" s="5">
         <v>4</v>
       </c>
       <c r="L53" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M53" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
       </c>
       <c r="O53" s="5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P53" s="5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q53" s="5">
         <v>0</v>
       </c>
       <c r="R53" s="5">
-        <v>0</v>
-      </c>
-      <c r="S53" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S53" s="5">
+        <v>3</v>
       </c>
       <c r="T53" s="5">
         <v>0</v>
       </c>
       <c r="U53" s="5">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="V53" s="5">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W53" s="5">
         <v>4</v>
       </c>
       <c r="X53" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y53" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z53" s="5">
         <v>0</v>
@@ -5681,82 +6115,89 @@
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
     </row>
-    <row r="54" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I54" s="5">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J54" s="5">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K54" s="5">
         <v>4</v>
       </c>
       <c r="L54" s="5">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M54" s="5">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N54" s="5">
         <v>0</v>
       </c>
       <c r="O54" s="5">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P54" s="5">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q54" s="5">
         <v>0</v>
       </c>
       <c r="R54" s="5">
-        <v>0</v>
-      </c>
-      <c r="S54" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S54" s="5">
+        <v>2</v>
       </c>
       <c r="T54" s="5">
         <v>0</v>
       </c>
       <c r="U54" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V54" s="5">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W54" s="5">
         <v>4</v>
       </c>
       <c r="X54" s="5">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="Y54" s="5">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="Z54" s="5">
         <v>0</v>
@@ -5766,46 +6207,53 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
     </row>
-    <row r="55" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="10">
-        <v>1375</v>
-      </c>
-      <c r="J55" s="10">
+        <v>36</v>
+      </c>
+      <c r="I55" s="12">
         <v>1373</v>
+      </c>
+      <c r="J55" s="12">
+        <v>1371</v>
       </c>
       <c r="K55" s="5">
         <v>2</v>
       </c>
       <c r="L55" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M55" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N55" s="5">
         <v>0</v>
@@ -5829,19 +6277,19 @@
         <v>0</v>
       </c>
       <c r="U55" s="5">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="V55" s="5">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="W55" s="5">
         <v>2</v>
       </c>
       <c r="X55" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y55" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z55" s="5">
         <v>0</v>
@@ -5851,46 +6299,53 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
     </row>
-    <row r="56" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="10">
+        <v>36</v>
+      </c>
+      <c r="I56" s="12">
         <v>1197</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="12">
         <v>1194</v>
       </c>
       <c r="K56" s="5">
         <v>3</v>
       </c>
       <c r="L56" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M56" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -5923,10 +6378,10 @@
         <v>3</v>
       </c>
       <c r="X56" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y56" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Z56" s="5">
         <v>0</v>
@@ -5936,64 +6391,71 @@
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
     </row>
-    <row r="57" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I57" s="5">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J57" s="5">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K57" s="5">
         <v>0</v>
       </c>
       <c r="L57" s="5">
-        <v>0</v>
-      </c>
-      <c r="M57" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M57" s="5">
+        <v>2</v>
       </c>
       <c r="N57" s="5">
         <v>0</v>
       </c>
       <c r="O57" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P57" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q57" s="5">
         <v>0</v>
       </c>
       <c r="R57" s="5">
-        <v>0</v>
-      </c>
-      <c r="S57" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S57" s="5">
+        <v>2</v>
       </c>
       <c r="T57" s="5">
         <v>0</v>
@@ -6021,31 +6483,38 @@
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
     </row>
-    <row r="58" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I58" s="5">
         <v>123</v>
@@ -6106,82 +6575,89 @@
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
     </row>
-    <row r="59" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I59" s="5">
-        <v>988</v>
+        <v>920</v>
       </c>
       <c r="J59" s="5">
-        <v>987</v>
+        <v>919</v>
       </c>
       <c r="K59" s="5">
         <v>1</v>
       </c>
       <c r="L59" s="5">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="M59" s="5">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="N59" s="5">
         <v>0</v>
       </c>
       <c r="O59" s="5">
-        <v>808</v>
+        <v>755</v>
       </c>
       <c r="P59" s="5">
-        <v>807</v>
+        <v>754</v>
       </c>
       <c r="Q59" s="5">
         <v>1</v>
       </c>
       <c r="R59" s="5">
-        <v>0</v>
-      </c>
-      <c r="S59" s="6">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="S59" s="5">
+        <v>53</v>
       </c>
       <c r="T59" s="5">
         <v>0</v>
       </c>
       <c r="U59" s="5">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="V59" s="5">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="W59" s="5">
         <v>0</v>
       </c>
       <c r="X59" s="5">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Y59" s="5">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Z59" s="5">
         <v>0</v>
@@ -6191,64 +6667,71 @@
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
     </row>
-    <row r="60" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="10">
-        <v>1491</v>
-      </c>
-      <c r="J60" s="10">
-        <v>1487</v>
+        <v>36</v>
+      </c>
+      <c r="I60" s="12">
+        <v>1451</v>
+      </c>
+      <c r="J60" s="12">
+        <v>1447</v>
       </c>
       <c r="K60" s="5">
         <v>4</v>
       </c>
       <c r="L60" s="5">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="M60" s="5">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="N60" s="5">
         <v>1</v>
       </c>
-      <c r="O60" s="10">
-        <v>1147</v>
-      </c>
-      <c r="P60" s="10">
-        <v>1143</v>
+      <c r="O60" s="12">
+        <v>1107</v>
+      </c>
+      <c r="P60" s="12">
+        <v>1103</v>
       </c>
       <c r="Q60" s="5">
         <v>4</v>
       </c>
       <c r="R60" s="5">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="S60" s="5">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="T60" s="5">
         <v>0</v>
@@ -6276,46 +6759,53 @@
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
     </row>
-    <row r="61" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I61" s="5">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J61" s="5">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K61" s="5">
         <v>1</v>
       </c>
       <c r="L61" s="5">
-        <v>0</v>
-      </c>
-      <c r="M61" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1</v>
       </c>
       <c r="N61" s="5">
         <v>0</v>
@@ -6339,19 +6829,19 @@
         <v>0</v>
       </c>
       <c r="U61" s="5">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V61" s="5">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W61" s="5">
         <v>0</v>
       </c>
       <c r="X61" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y61" s="5">
+        <v>1</v>
       </c>
       <c r="Z61" s="5">
         <v>0</v>
@@ -6361,64 +6851,71 @@
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
     </row>
-    <row r="62" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I62" s="5">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J62" s="5">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K62" s="5">
         <v>0</v>
       </c>
       <c r="L62" s="5">
-        <v>0</v>
-      </c>
-      <c r="M62" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M62" s="5">
+        <v>1</v>
       </c>
       <c r="N62" s="5">
         <v>0</v>
       </c>
       <c r="O62" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P62" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q62" s="5">
         <v>0</v>
       </c>
       <c r="R62" s="5">
-        <v>0</v>
-      </c>
-      <c r="S62" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S62" s="5">
+        <v>1</v>
       </c>
       <c r="T62" s="5">
         <v>0</v>
@@ -6446,31 +6943,38 @@
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
     </row>
-    <row r="63" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I63" s="5">
         <v>514</v>
@@ -6531,31 +7035,38 @@
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
     </row>
-    <row r="64" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I64" s="5">
         <v>164</v>
@@ -6616,64 +7127,71 @@
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
     </row>
-    <row r="65" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I65" s="5">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J65" s="5">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K65" s="5">
         <v>3</v>
       </c>
       <c r="L65" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M65" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N65" s="5">
         <v>0</v>
       </c>
       <c r="O65" s="5">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P65" s="5">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q65" s="5">
         <v>3</v>
       </c>
       <c r="R65" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S65" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T65" s="5">
         <v>0</v>
@@ -6696,36 +7214,51 @@
       <c r="Z65" s="5">
         <v>0</v>
       </c>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
+      <c r="AA65" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB65" s="10">
+        <v>2</v>
+      </c>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="11">
+        <v>8</v>
+      </c>
+      <c r="AL65" s="11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I66" s="5">
         <v>946</v>
@@ -6737,10 +7270,10 @@
         <v>2</v>
       </c>
       <c r="L66" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M66" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N66" s="5">
         <v>0</v>
@@ -6755,10 +7288,10 @@
         <v>2</v>
       </c>
       <c r="R66" s="5">
-        <v>4</v>
-      </c>
-      <c r="S66" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S66" s="6">
+        <v>0</v>
       </c>
       <c r="T66" s="5">
         <v>0</v>
@@ -6786,31 +7319,38 @@
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
     </row>
-    <row r="67" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I67" s="5">
         <v>37</v>
@@ -6871,64 +7411,71 @@
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4"/>
+      <c r="AL67" s="4"/>
     </row>
-    <row r="68" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I68" s="5">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J68" s="5">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K68" s="5">
         <v>0</v>
       </c>
       <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M68" s="5">
+        <v>5</v>
       </c>
       <c r="N68" s="5">
         <v>0</v>
       </c>
       <c r="O68" s="5">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P68" s="5">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q68" s="5">
         <v>0</v>
       </c>
       <c r="R68" s="5">
-        <v>0</v>
-      </c>
-      <c r="S68" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S68" s="5">
+        <v>5</v>
       </c>
       <c r="T68" s="5">
         <v>0</v>
@@ -6956,49 +7503,56 @@
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
     </row>
-    <row r="69" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I69" s="5">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="J69" s="5">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="K69" s="5">
         <v>7</v>
       </c>
       <c r="L69" s="5">
-        <v>32</v>
-      </c>
-      <c r="M69" s="6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M69" s="5">
+        <v>16</v>
       </c>
       <c r="N69" s="5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O69" s="5">
         <v>127</v>
@@ -7019,68 +7573,75 @@
         <v>0</v>
       </c>
       <c r="U69" s="5">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="V69" s="5">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="W69" s="5">
         <v>6</v>
       </c>
       <c r="X69" s="5">
-        <v>32</v>
-      </c>
-      <c r="Y69" s="6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>16</v>
       </c>
       <c r="Z69" s="5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
     </row>
-    <row r="70" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I70" s="5">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J70" s="5">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K70" s="5">
         <v>0</v>
       </c>
       <c r="L70" s="5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="M70" s="5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N70" s="5">
         <v>0</v>
@@ -7095,28 +7656,28 @@
         <v>0</v>
       </c>
       <c r="R70" s="5">
-        <v>30</v>
-      </c>
-      <c r="S70" s="5">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="S70" s="6">
+        <v>0</v>
       </c>
       <c r="T70" s="5">
         <v>0</v>
       </c>
       <c r="U70" s="5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V70" s="5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W70" s="5">
         <v>0</v>
       </c>
       <c r="X70" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z70" s="5">
         <v>0</v>
@@ -7126,31 +7687,38 @@
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
     </row>
-    <row r="71" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I71" s="5">
         <v>986</v>
@@ -7162,10 +7730,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M71" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N71" s="5">
         <v>0</v>
@@ -7180,10 +7748,10 @@
         <v>0</v>
       </c>
       <c r="R71" s="5">
-        <v>2</v>
-      </c>
-      <c r="S71" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S71" s="6">
+        <v>0</v>
       </c>
       <c r="T71" s="5">
         <v>0</v>
@@ -7198,10 +7766,10 @@
         <v>0</v>
       </c>
       <c r="X71" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y71" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z71" s="5">
         <v>0</v>
@@ -7211,64 +7779,71 @@
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="4"/>
+      <c r="AH71" s="4"/>
+      <c r="AI71" s="4"/>
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+      <c r="AL71" s="4"/>
     </row>
-    <row r="72" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I72" s="5">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="J72" s="5">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K72" s="5">
         <v>0</v>
       </c>
       <c r="L72" s="5">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="M72" s="5">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="N72" s="5">
         <v>2</v>
       </c>
       <c r="O72" s="5">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P72" s="5">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q72" s="5">
         <v>0</v>
       </c>
       <c r="R72" s="5">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="S72" s="5">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="T72" s="5">
         <v>2</v>
@@ -7296,46 +7871,53 @@
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="4"/>
+      <c r="AI72" s="4"/>
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+      <c r="AL72" s="4"/>
     </row>
-    <row r="73" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="10">
-        <v>1054</v>
-      </c>
-      <c r="J73" s="10">
-        <v>1054</v>
+        <v>36</v>
+      </c>
+      <c r="I73" s="12">
+        <v>1052</v>
+      </c>
+      <c r="J73" s="12">
+        <v>1052</v>
       </c>
       <c r="K73" s="5">
         <v>0</v>
       </c>
       <c r="L73" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M73" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N73" s="5">
         <v>0</v>
@@ -7350,28 +7932,28 @@
         <v>0</v>
       </c>
       <c r="R73" s="5">
-        <v>6</v>
-      </c>
-      <c r="S73" s="5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S73" s="6">
+        <v>0</v>
       </c>
       <c r="T73" s="5">
         <v>0</v>
       </c>
       <c r="U73" s="5">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V73" s="5">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="W73" s="5">
         <v>0</v>
       </c>
       <c r="X73" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y73" s="5">
+        <v>2</v>
       </c>
       <c r="Z73" s="5">
         <v>0</v>
@@ -7381,116 +7963,142 @@
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
+      <c r="AH73" s="4"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
     </row>
-    <row r="74" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" s="8">
+        <v>43</v>
+      </c>
+      <c r="J74" s="5">
+        <v>43</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0</v>
+      </c>
+      <c r="L74" s="8">
+        <v>69</v>
+      </c>
+      <c r="M74" s="5">
+        <v>69</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0</v>
+      </c>
+      <c r="O74" s="8">
+        <v>20</v>
+      </c>
+      <c r="P74" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <v>38</v>
+      </c>
+      <c r="S74" s="5">
+        <v>38</v>
+      </c>
+      <c r="T74" s="5">
+        <v>0</v>
+      </c>
+      <c r="U74" s="8">
         <v>23</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="5">
-        <v>81</v>
-      </c>
-      <c r="J74" s="5">
-        <v>81</v>
-      </c>
-      <c r="K74" s="5">
-        <v>0</v>
-      </c>
-      <c r="L74" s="5">
-        <v>31</v>
-      </c>
-      <c r="M74" s="5">
-        <v>31</v>
-      </c>
-      <c r="N74" s="5">
-        <v>0</v>
-      </c>
-      <c r="O74" s="5">
-        <v>38</v>
-      </c>
-      <c r="P74" s="5">
-        <v>38</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>0</v>
-      </c>
-      <c r="R74" s="5">
-        <v>20</v>
-      </c>
-      <c r="S74" s="5">
-        <v>20</v>
-      </c>
-      <c r="T74" s="5">
-        <v>0</v>
-      </c>
-      <c r="U74" s="5">
-        <v>43</v>
-      </c>
       <c r="V74" s="5">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="W74" s="5">
         <v>0</v>
       </c>
-      <c r="X74" s="5">
+      <c r="X74" s="8">
+        <v>31</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>31</v>
+      </c>
+      <c r="Z74" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="5">
         <v>11</v>
       </c>
-      <c r="Y74" s="5">
-        <v>11</v>
-      </c>
-      <c r="Z74" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
+      <c r="AB74" s="10">
+        <v>4</v>
+      </c>
+      <c r="AC74" s="15">
+        <v>31</v>
+      </c>
+      <c r="AD74" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF74" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="4"/>
+      <c r="AI74" s="4"/>
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
+      <c r="AL74" s="4"/>
     </row>
-    <row r="75" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I75" s="5">
         <v>162</v>
@@ -7502,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M75" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N75" s="5">
         <v>0</v>
@@ -7538,10 +8146,10 @@
         <v>0</v>
       </c>
       <c r="X75" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y75" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z75" s="5">
         <v>0</v>
@@ -7551,31 +8159,38 @@
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
     </row>
-    <row r="76" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I76" s="5">
         <v>56</v>
@@ -7636,31 +8251,38 @@
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
     </row>
-    <row r="77" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I77" s="5">
         <v>401</v>
@@ -7719,46 +8341,53 @@
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
     </row>
-    <row r="78" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I78" s="5">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="J78" s="5">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="K78" s="5">
         <v>0</v>
       </c>
       <c r="L78" s="5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M78" s="5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N78" s="5">
         <v>0</v>
@@ -7782,19 +8411,19 @@
         <v>0</v>
       </c>
       <c r="U78" s="5">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="V78" s="5">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="W78" s="5">
         <v>0</v>
       </c>
       <c r="X78" s="5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Y78" s="5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Z78" s="5">
         <v>0</v>
@@ -7804,82 +8433,89 @@
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
     </row>
-    <row r="79" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I79" s="5">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J79" s="5">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K79" s="5">
         <v>0</v>
       </c>
       <c r="L79" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M79" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N79" s="5">
         <v>0</v>
       </c>
       <c r="O79" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P79" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q79" s="5">
         <v>0</v>
       </c>
       <c r="R79" s="5">
-        <v>5</v>
-      </c>
-      <c r="S79" s="5">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="S79" s="6">
+        <v>0</v>
       </c>
       <c r="T79" s="5">
         <v>0</v>
       </c>
       <c r="U79" s="5">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="V79" s="5">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="W79" s="5">
         <v>0</v>
       </c>
       <c r="X79" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="6">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="Y79" s="5">
+        <v>21</v>
       </c>
       <c r="Z79" s="5">
         <v>0</v>
@@ -7889,46 +8525,53 @@
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+      <c r="AL79" s="4"/>
     </row>
-    <row r="80" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I80" s="5">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="J80" s="5">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="K80" s="5">
         <v>0</v>
       </c>
       <c r="L80" s="5">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M80" s="5">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N80" s="5">
         <v>0</v>
@@ -7952,19 +8595,19 @@
         <v>0</v>
       </c>
       <c r="U80" s="5">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="V80" s="5">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="W80" s="5">
         <v>0</v>
       </c>
       <c r="X80" s="5">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="Y80" s="5">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="Z80" s="5">
         <v>0</v>
@@ -7974,82 +8617,89 @@
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+      <c r="AL80" s="4"/>
     </row>
-    <row r="81" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I81" s="10">
-        <v>1027</v>
-      </c>
-      <c r="J81" s="10">
-        <v>1026</v>
+        <v>36</v>
+      </c>
+      <c r="I81" s="12">
+        <v>1022</v>
+      </c>
+      <c r="J81" s="12">
+        <v>1021</v>
       </c>
       <c r="K81" s="5">
         <v>1</v>
       </c>
       <c r="L81" s="5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M81" s="5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N81" s="5">
         <v>0</v>
       </c>
       <c r="O81" s="5">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="P81" s="5">
-        <v>932</v>
+        <v>882</v>
       </c>
       <c r="Q81" s="5">
         <v>1</v>
       </c>
       <c r="R81" s="5">
-        <v>10</v>
-      </c>
-      <c r="S81" s="5">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="S81" s="6">
+        <v>0</v>
       </c>
       <c r="T81" s="5">
         <v>0</v>
       </c>
       <c r="U81" s="5">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="V81" s="5">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="W81" s="5">
         <v>0</v>
       </c>
       <c r="X81" s="5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Y81" s="5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Z81" s="5">
         <v>0</v>
@@ -8059,31 +8709,38 @@
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+      <c r="AL81" s="4"/>
     </row>
-    <row r="82" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I82" s="5">
         <v>916</v>
@@ -8144,31 +8801,38 @@
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AL82" s="4"/>
     </row>
-    <row r="83" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>165</v>
+        <v>49</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I83" s="8">
         <v>0</v>
@@ -8178,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="8">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="M83" s="5">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="N83" s="5">
         <v>0</v>
@@ -8194,10 +8858,10 @@
         <v>0</v>
       </c>
       <c r="R83" s="8">
-        <v>190</v>
+        <v>439</v>
       </c>
       <c r="S83" s="5">
-        <v>190</v>
+        <v>439</v>
       </c>
       <c r="T83" s="5">
         <v>0</v>
@@ -8218,97 +8882,94 @@
       <c r="Z83" s="5">
         <v>0</v>
       </c>
-      <c r="AA83" s="5">
-        <v>8</v>
-      </c>
-      <c r="AB83" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC83" s="14">
-        <v>25</v>
-      </c>
-      <c r="AD83" s="14">
-        <v>26</v>
-      </c>
-      <c r="AE83" s="14">
-        <v>27</v>
-      </c>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="4"/>
+      <c r="AL83" s="4"/>
     </row>
-    <row r="84" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I84" s="5">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="J84" s="5">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="K84" s="5">
         <v>21</v>
       </c>
       <c r="L84" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M84" s="5">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N84" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O84" s="5">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P84" s="5">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q84" s="5">
         <v>3</v>
       </c>
       <c r="R84" s="5">
-        <v>17</v>
-      </c>
-      <c r="S84" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S84" s="5">
+        <v>4</v>
       </c>
       <c r="T84" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U84" s="5">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="V84" s="5">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="W84" s="5">
         <v>18</v>
       </c>
       <c r="X84" s="5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="Y84" s="5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="Z84" s="5">
         <v>0</v>
@@ -8318,82 +8979,89 @@
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
+      <c r="AF84" s="4"/>
+      <c r="AG84" s="4"/>
+      <c r="AH84" s="4"/>
+      <c r="AI84" s="4"/>
+      <c r="AJ84" s="4"/>
+      <c r="AK84" s="4"/>
+      <c r="AL84" s="4"/>
     </row>
-    <row r="85" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I85" s="5">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="J85" s="5">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="K85" s="5">
         <v>0</v>
       </c>
       <c r="L85" s="5">
-        <v>0</v>
-      </c>
-      <c r="M85" s="6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M85" s="5">
+        <v>16</v>
       </c>
       <c r="N85" s="5">
         <v>0</v>
       </c>
       <c r="O85" s="5">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="P85" s="5">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="Q85" s="5">
         <v>0</v>
       </c>
       <c r="R85" s="5">
-        <v>0</v>
-      </c>
-      <c r="S85" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S85" s="5">
+        <v>1</v>
       </c>
       <c r="T85" s="5">
         <v>0</v>
       </c>
       <c r="U85" s="5">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="V85" s="5">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="W85" s="5">
         <v>0</v>
       </c>
       <c r="X85" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="6">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>15</v>
       </c>
       <c r="Z85" s="5">
         <v>0</v>
@@ -8403,36 +9071,43 @@
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
+      <c r="AF85" s="4"/>
+      <c r="AG85" s="4"/>
+      <c r="AH85" s="4"/>
+      <c r="AI85" s="4"/>
+      <c r="AJ85" s="4"/>
+      <c r="AK85" s="4"/>
+      <c r="AL85" s="4"/>
     </row>
-    <row r="86" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I86" s="10">
+        <v>36</v>
+      </c>
+      <c r="I86" s="12">
         <v>1232</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J86" s="12">
         <v>1232</v>
       </c>
       <c r="K86" s="5">
@@ -8447,10 +9122,10 @@
       <c r="N86" s="5">
         <v>0</v>
       </c>
-      <c r="O86" s="10">
+      <c r="O86" s="12">
         <v>1004</v>
       </c>
-      <c r="P86" s="10">
+      <c r="P86" s="12">
         <v>1004</v>
       </c>
       <c r="Q86" s="5">
@@ -8488,82 +9163,89 @@
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
+      <c r="AF86" s="4"/>
+      <c r="AG86" s="4"/>
+      <c r="AH86" s="4"/>
+      <c r="AI86" s="4"/>
+      <c r="AJ86" s="4"/>
+      <c r="AK86" s="4"/>
+      <c r="AL86" s="4"/>
     </row>
-    <row r="87" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I87" s="5">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="J87" s="5">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K87" s="5">
         <v>1</v>
       </c>
       <c r="L87" s="5">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M87" s="5">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N87" s="5">
         <v>0</v>
       </c>
       <c r="O87" s="5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P87" s="5">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q87" s="5">
         <v>1</v>
       </c>
       <c r="R87" s="5">
-        <v>0</v>
-      </c>
-      <c r="S87" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S87" s="5">
+        <v>1</v>
       </c>
       <c r="T87" s="5">
         <v>0</v>
       </c>
       <c r="U87" s="5">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="V87" s="5">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="W87" s="5">
         <v>0</v>
       </c>
       <c r="X87" s="5">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="Y87" s="5">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="Z87" s="5">
         <v>0</v>
@@ -8573,64 +9255,71 @@
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
+      <c r="AF87" s="4"/>
+      <c r="AG87" s="4"/>
+      <c r="AH87" s="4"/>
+      <c r="AI87" s="4"/>
+      <c r="AJ87" s="4"/>
+      <c r="AK87" s="4"/>
+      <c r="AL87" s="4"/>
     </row>
-    <row r="88" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I88" s="5">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J88" s="5">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K88" s="5">
         <v>0</v>
       </c>
       <c r="L88" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M88" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N88" s="5">
         <v>0</v>
       </c>
       <c r="O88" s="5">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P88" s="5">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q88" s="5">
         <v>0</v>
       </c>
       <c r="R88" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S88" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T88" s="5">
         <v>0</v>
@@ -8658,31 +9347,38 @@
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
+      <c r="AF88" s="4"/>
+      <c r="AG88" s="4"/>
+      <c r="AH88" s="4"/>
+      <c r="AI88" s="4"/>
+      <c r="AJ88" s="4"/>
+      <c r="AK88" s="4"/>
+      <c r="AL88" s="4"/>
     </row>
-    <row r="89" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I89" s="5">
         <v>114</v>
@@ -8741,31 +9437,38 @@
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
+      <c r="AF89" s="4"/>
+      <c r="AG89" s="4"/>
+      <c r="AH89" s="4"/>
+      <c r="AI89" s="4"/>
+      <c r="AJ89" s="4"/>
+      <c r="AK89" s="4"/>
+      <c r="AL89" s="4"/>
     </row>
-    <row r="90" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I90" s="5">
         <v>611</v>
@@ -8824,31 +9527,38 @@
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
+      <c r="AF90" s="4"/>
+      <c r="AG90" s="4"/>
+      <c r="AH90" s="4"/>
+      <c r="AI90" s="4"/>
+      <c r="AJ90" s="4"/>
+      <c r="AK90" s="4"/>
+      <c r="AL90" s="4"/>
     </row>
-    <row r="91" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I91" s="5">
         <v>23</v>
@@ -8907,82 +9617,89 @@
       <c r="AC91" s="4"/>
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
+      <c r="AF91" s="4"/>
+      <c r="AG91" s="4"/>
+      <c r="AH91" s="4"/>
+      <c r="AI91" s="4"/>
+      <c r="AJ91" s="4"/>
+      <c r="AK91" s="4"/>
+      <c r="AL91" s="4"/>
     </row>
-    <row r="92" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92" s="10">
-        <v>2265</v>
-      </c>
-      <c r="J92" s="10">
-        <v>2264</v>
+        <v>36</v>
+      </c>
+      <c r="I92" s="12">
+        <v>2221</v>
+      </c>
+      <c r="J92" s="12">
+        <v>2220</v>
       </c>
       <c r="K92" s="5">
         <v>1</v>
       </c>
       <c r="L92" s="5">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M92" s="5">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="N92" s="5">
         <v>0</v>
       </c>
-      <c r="O92" s="10">
-        <v>1821</v>
-      </c>
-      <c r="P92" s="10">
-        <v>1821</v>
+      <c r="O92" s="12">
+        <v>1812</v>
+      </c>
+      <c r="P92" s="12">
+        <v>1812</v>
       </c>
       <c r="Q92" s="5">
         <v>0</v>
       </c>
       <c r="R92" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S92" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T92" s="5">
         <v>0</v>
       </c>
       <c r="U92" s="5">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="V92" s="5">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="W92" s="5">
         <v>1</v>
       </c>
       <c r="X92" s="5">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="Y92" s="5">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="Z92" s="5">
         <v>0</v>
@@ -8992,46 +9709,53 @@
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
+      <c r="AF92" s="4"/>
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="4"/>
+      <c r="AI92" s="4"/>
+      <c r="AJ92" s="4"/>
+      <c r="AK92" s="4"/>
+      <c r="AL92" s="4"/>
     </row>
-    <row r="93" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I93" s="10">
-        <v>1001</v>
+        <v>36</v>
+      </c>
+      <c r="I93" s="5">
+        <v>980</v>
       </c>
       <c r="J93" s="5">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="K93" s="5">
         <v>2</v>
       </c>
       <c r="L93" s="5">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="M93" s="5">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N93" s="5">
         <v>20</v>
@@ -9046,28 +9770,28 @@
         <v>0</v>
       </c>
       <c r="R93" s="5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="S93" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T93" s="5">
         <v>20</v>
       </c>
       <c r="U93" s="5">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="V93" s="5">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="W93" s="5">
         <v>2</v>
       </c>
       <c r="X93" s="5">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Y93" s="5">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Z93" s="5">
         <v>0</v>
@@ -9077,225 +9801,246 @@
       <c r="AC93" s="4"/>
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
+      <c r="AF93" s="4"/>
+      <c r="AG93" s="4"/>
+      <c r="AH93" s="4"/>
+      <c r="AI93" s="4"/>
+      <c r="AJ93" s="4"/>
+      <c r="AK93" s="4"/>
+      <c r="AL93" s="4"/>
     </row>
-    <row r="94" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" s="10">
-        <v>2346</v>
-      </c>
-      <c r="J94" s="10">
-        <v>2336</v>
+        <v>36</v>
+      </c>
+      <c r="I94" s="12">
+        <v>2172</v>
+      </c>
+      <c r="J94" s="12">
+        <v>2162</v>
       </c>
       <c r="K94" s="5">
         <v>10</v>
       </c>
       <c r="L94" s="5">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="M94" s="5">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="N94" s="5">
-        <v>42</v>
-      </c>
-      <c r="O94" s="10">
-        <v>1823</v>
-      </c>
-      <c r="P94" s="10">
-        <v>1813</v>
+        <v>46</v>
+      </c>
+      <c r="O94" s="12">
+        <v>1423</v>
+      </c>
+      <c r="P94" s="12">
+        <v>1413</v>
       </c>
       <c r="Q94" s="5">
         <v>10</v>
       </c>
       <c r="R94" s="5">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S94" s="5">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T94" s="5">
         <v>40</v>
       </c>
       <c r="U94" s="5">
-        <v>523</v>
+        <v>749</v>
       </c>
       <c r="V94" s="5">
-        <v>523</v>
+        <v>749</v>
       </c>
       <c r="W94" s="5">
         <v>0</v>
       </c>
       <c r="X94" s="5">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="Y94" s="5">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="Z94" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA94" s="7"/>
       <c r="AB94" s="7"/>
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
+      <c r="AF94" s="4"/>
+      <c r="AG94" s="4"/>
+      <c r="AH94" s="4"/>
+      <c r="AI94" s="4"/>
+      <c r="AJ94" s="4"/>
+      <c r="AK94" s="4"/>
+      <c r="AL94" s="4"/>
     </row>
-    <row r="95" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I95" s="10">
-        <v>1766</v>
-      </c>
-      <c r="J95" s="10">
-        <v>1758</v>
+        <v>36</v>
+      </c>
+      <c r="I95" s="12">
+        <v>1697</v>
+      </c>
+      <c r="J95" s="12">
+        <v>1691</v>
       </c>
       <c r="K95" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L95" s="5">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="M95" s="5">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="N95" s="5">
-        <v>50</v>
-      </c>
-      <c r="O95" s="10">
-        <v>1247</v>
-      </c>
-      <c r="P95" s="10">
-        <v>1247</v>
+        <v>52</v>
+      </c>
+      <c r="O95" s="12">
+        <v>1198</v>
+      </c>
+      <c r="P95" s="12">
+        <v>1198</v>
       </c>
       <c r="Q95" s="5">
         <v>0</v>
       </c>
       <c r="R95" s="5">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="S95" s="5">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="T95" s="5">
         <v>50</v>
       </c>
       <c r="U95" s="5">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="V95" s="5">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="W95" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X95" s="5">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Y95" s="5">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Z95" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA95" s="7"/>
       <c r="AB95" s="7"/>
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
+      <c r="AF95" s="4"/>
+      <c r="AG95" s="4"/>
+      <c r="AH95" s="4"/>
+      <c r="AI95" s="4"/>
+      <c r="AJ95" s="4"/>
+      <c r="AK95" s="4"/>
+      <c r="AL95" s="4"/>
     </row>
-    <row r="96" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I96" s="12">
+        <v>1837</v>
+      </c>
+      <c r="J96" s="12">
+        <v>1837</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <v>80</v>
+      </c>
+      <c r="M96" s="5">
+        <v>56</v>
+      </c>
+      <c r="N96" s="5">
         <v>24</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I96" s="10">
-        <v>1887</v>
-      </c>
-      <c r="J96" s="10">
-        <v>1887</v>
-      </c>
-      <c r="K96" s="5">
-        <v>0</v>
-      </c>
-      <c r="L96" s="5">
-        <v>48</v>
-      </c>
-      <c r="M96" s="5">
-        <v>48</v>
-      </c>
-      <c r="N96" s="5">
-        <v>0</v>
-      </c>
-      <c r="O96" s="10">
-        <v>1483</v>
-      </c>
-      <c r="P96" s="10">
-        <v>1483</v>
+      <c r="O96" s="12">
+        <v>1459</v>
+      </c>
+      <c r="P96" s="12">
+        <v>1459</v>
       </c>
       <c r="Q96" s="5">
         <v>0</v>
@@ -9304,59 +10049,66 @@
         <v>15</v>
       </c>
       <c r="S96" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T96" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U96" s="5">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="V96" s="5">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="W96" s="5">
         <v>0</v>
       </c>
       <c r="X96" s="5">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="Y96" s="5">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="Z96" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA96" s="7"/>
       <c r="AB96" s="7"/>
       <c r="AC96" s="4"/>
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
+      <c r="AF96" s="4"/>
+      <c r="AG96" s="4"/>
+      <c r="AH96" s="4"/>
+      <c r="AI96" s="4"/>
+      <c r="AJ96" s="4"/>
+      <c r="AK96" s="4"/>
+      <c r="AL96" s="4"/>
     </row>
-    <row r="97" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I97" s="5">
         <v>424</v>
@@ -9368,13 +10120,13 @@
         <v>0</v>
       </c>
       <c r="L97" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M97" s="5">
         <v>20</v>
       </c>
       <c r="N97" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O97" s="5">
         <v>324</v>
@@ -9404,44 +10156,51 @@
         <v>0</v>
       </c>
       <c r="X97" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y97" s="6">
         <v>0</v>
       </c>
       <c r="Z97" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA97" s="7"/>
       <c r="AB97" s="7"/>
       <c r="AC97" s="4"/>
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
+      <c r="AF97" s="4"/>
+      <c r="AG97" s="4"/>
+      <c r="AH97" s="4"/>
+      <c r="AI97" s="4"/>
+      <c r="AJ97" s="4"/>
+      <c r="AK97" s="4"/>
+      <c r="AL97" s="4"/>
     </row>
-    <row r="98" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I98" s="5">
         <v>696</v>
@@ -9502,31 +10261,38 @@
       <c r="AC98" s="4"/>
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
+      <c r="AF98" s="4"/>
+      <c r="AG98" s="4"/>
+      <c r="AH98" s="4"/>
+      <c r="AI98" s="4"/>
+      <c r="AJ98" s="4"/>
+      <c r="AK98" s="4"/>
+      <c r="AL98" s="4"/>
     </row>
-    <row r="99" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I99" s="5">
         <v>31</v>
@@ -9585,31 +10351,38 @@
       <c r="AC99" s="4"/>
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
+      <c r="AF99" s="4"/>
+      <c r="AG99" s="4"/>
+      <c r="AH99" s="4"/>
+      <c r="AI99" s="4"/>
+      <c r="AJ99" s="4"/>
+      <c r="AK99" s="4"/>
+      <c r="AL99" s="4"/>
     </row>
-    <row r="100" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I100" s="5">
         <v>449</v>
@@ -9670,82 +10443,89 @@
       <c r="AC100" s="4"/>
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
+      <c r="AF100" s="4"/>
+      <c r="AG100" s="4"/>
+      <c r="AH100" s="4"/>
+      <c r="AI100" s="4"/>
+      <c r="AJ100" s="4"/>
+      <c r="AK100" s="4"/>
+      <c r="AL100" s="4"/>
     </row>
-    <row r="101" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I101" s="5">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="J101" s="5">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="K101" s="5">
         <v>2</v>
       </c>
       <c r="L101" s="5">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M101" s="5">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="N101" s="5">
         <v>0</v>
       </c>
       <c r="O101" s="5">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="P101" s="5">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="Q101" s="5">
         <v>2</v>
       </c>
       <c r="R101" s="5">
-        <v>0</v>
-      </c>
-      <c r="S101" s="6">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="S101" s="5">
+        <v>13</v>
       </c>
       <c r="T101" s="5">
         <v>0</v>
       </c>
       <c r="U101" s="5">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="V101" s="5">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="W101" s="5">
         <v>0</v>
       </c>
       <c r="X101" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Y101" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Z101" s="5">
         <v>0</v>
@@ -9755,31 +10535,38 @@
       <c r="AC101" s="4"/>
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
+      <c r="AF101" s="4"/>
+      <c r="AG101" s="4"/>
+      <c r="AH101" s="4"/>
+      <c r="AI101" s="4"/>
+      <c r="AJ101" s="4"/>
+      <c r="AK101" s="4"/>
+      <c r="AL101" s="4"/>
     </row>
-    <row r="102" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I102" s="5">
         <v>586</v>
@@ -9840,64 +10627,71 @@
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
+      <c r="AF102" s="4"/>
+      <c r="AG102" s="4"/>
+      <c r="AH102" s="4"/>
+      <c r="AI102" s="4"/>
+      <c r="AJ102" s="4"/>
+      <c r="AK102" s="4"/>
+      <c r="AL102" s="4"/>
     </row>
-    <row r="103" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I103" s="5">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J103" s="5">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K103" s="5">
         <v>2</v>
       </c>
       <c r="L103" s="5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M103" s="5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N103" s="5">
         <v>0</v>
       </c>
       <c r="O103" s="5">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="P103" s="5">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Q103" s="5">
         <v>2</v>
       </c>
       <c r="R103" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S103" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T103" s="5">
         <v>0</v>
@@ -9925,64 +10719,71 @@
       <c r="AC103" s="4"/>
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
+      <c r="AF103" s="4"/>
+      <c r="AG103" s="4"/>
+      <c r="AH103" s="4"/>
+      <c r="AI103" s="4"/>
+      <c r="AJ103" s="4"/>
+      <c r="AK103" s="4"/>
+      <c r="AL103" s="4"/>
     </row>
-    <row r="104" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I104" s="10">
-        <v>1095</v>
-      </c>
-      <c r="J104" s="10">
-        <v>1095</v>
+        <v>36</v>
+      </c>
+      <c r="I104" s="12">
+        <v>1090</v>
+      </c>
+      <c r="J104" s="12">
+        <v>1090</v>
       </c>
       <c r="K104" s="5">
         <v>0</v>
       </c>
       <c r="L104" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M104" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N104" s="5">
         <v>0</v>
       </c>
       <c r="O104" s="5">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="P104" s="5">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="Q104" s="5">
         <v>0</v>
       </c>
       <c r="R104" s="5">
-        <v>0</v>
-      </c>
-      <c r="S104" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S104" s="5">
+        <v>5</v>
       </c>
       <c r="T104" s="5">
         <v>0</v>
@@ -10010,31 +10811,38 @@
       <c r="AC104" s="4"/>
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
+      <c r="AF104" s="4"/>
+      <c r="AG104" s="4"/>
+      <c r="AH104" s="4"/>
+      <c r="AI104" s="4"/>
+      <c r="AJ104" s="4"/>
+      <c r="AK104" s="4"/>
+      <c r="AL104" s="4"/>
     </row>
-    <row r="105" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -10093,64 +10901,71 @@
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
+      <c r="AF105" s="4"/>
+      <c r="AG105" s="4"/>
+      <c r="AH105" s="4"/>
+      <c r="AI105" s="4"/>
+      <c r="AJ105" s="4"/>
+      <c r="AK105" s="4"/>
+      <c r="AL105" s="4"/>
     </row>
-    <row r="106" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I106" s="10">
-        <v>1215</v>
-      </c>
-      <c r="J106" s="10">
-        <v>1215</v>
+        <v>36</v>
+      </c>
+      <c r="I106" s="12">
+        <v>1209</v>
+      </c>
+      <c r="J106" s="12">
+        <v>1209</v>
       </c>
       <c r="K106" s="5">
         <v>0</v>
       </c>
       <c r="L106" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M106" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N106" s="5">
         <v>0</v>
       </c>
-      <c r="O106" s="10">
-        <v>1156</v>
-      </c>
-      <c r="P106" s="10">
-        <v>1156</v>
+      <c r="O106" s="12">
+        <v>1150</v>
+      </c>
+      <c r="P106" s="12">
+        <v>1150</v>
       </c>
       <c r="Q106" s="5">
         <v>0</v>
       </c>
       <c r="R106" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S106" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T106" s="5">
         <v>0</v>
@@ -10178,31 +10993,38 @@
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
+      <c r="AF106" s="4"/>
+      <c r="AG106" s="4"/>
+      <c r="AH106" s="4"/>
+      <c r="AI106" s="4"/>
+      <c r="AJ106" s="4"/>
+      <c r="AK106" s="4"/>
+      <c r="AL106" s="4"/>
     </row>
-    <row r="107" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I107" s="5">
         <v>936</v>
@@ -10263,82 +11085,89 @@
       <c r="AC107" s="4"/>
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
+      <c r="AF107" s="4"/>
+      <c r="AG107" s="4"/>
+      <c r="AH107" s="4"/>
+      <c r="AI107" s="4"/>
+      <c r="AJ107" s="4"/>
+      <c r="AK107" s="4"/>
+      <c r="AL107" s="4"/>
     </row>
-    <row r="108" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I108" s="5">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J108" s="5">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K108" s="5">
         <v>0</v>
       </c>
       <c r="L108" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M108" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N108" s="5">
         <v>0</v>
       </c>
       <c r="O108" s="5">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P108" s="5">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q108" s="5">
         <v>0</v>
       </c>
       <c r="R108" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S108" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T108" s="5">
         <v>0</v>
       </c>
       <c r="U108" s="5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V108" s="5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W108" s="5">
         <v>0</v>
       </c>
       <c r="X108" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y108" s="5">
+        <v>2</v>
       </c>
       <c r="Z108" s="5">
         <v>0</v>
@@ -10348,31 +11177,38 @@
       <c r="AC108" s="4"/>
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
+      <c r="AF108" s="4"/>
+      <c r="AG108" s="4"/>
+      <c r="AH108" s="4"/>
+      <c r="AI108" s="4"/>
+      <c r="AJ108" s="4"/>
+      <c r="AK108" s="4"/>
+      <c r="AL108" s="4"/>
     </row>
-    <row r="109" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I109" s="5">
         <v>486</v>
@@ -10433,46 +11269,53 @@
       <c r="AC109" s="4"/>
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
+      <c r="AF109" s="4"/>
+      <c r="AG109" s="4"/>
+      <c r="AH109" s="4"/>
+      <c r="AI109" s="4"/>
+      <c r="AJ109" s="4"/>
+      <c r="AK109" s="4"/>
+      <c r="AL109" s="4"/>
     </row>
-    <row r="110" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I110" s="5">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J110" s="5">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K110" s="5">
         <v>0</v>
       </c>
       <c r="L110" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M110" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N110" s="5">
         <v>0</v>
@@ -10496,19 +11339,19 @@
         <v>0</v>
       </c>
       <c r="U110" s="5">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="V110" s="5">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="W110" s="5">
         <v>0</v>
       </c>
       <c r="X110" s="5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y110" s="5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Z110" s="5">
         <v>0</v>
@@ -10518,31 +11361,38 @@
       <c r="AC110" s="4"/>
       <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
+      <c r="AF110" s="4"/>
+      <c r="AG110" s="4"/>
+      <c r="AH110" s="4"/>
+      <c r="AI110" s="4"/>
+      <c r="AJ110" s="4"/>
+      <c r="AK110" s="4"/>
+      <c r="AL110" s="4"/>
     </row>
-    <row r="111" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I111" s="5">
         <v>137</v>
@@ -10601,64 +11451,71 @@
       <c r="AC111" s="4"/>
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
+      <c r="AF111" s="4"/>
+      <c r="AG111" s="4"/>
+      <c r="AH111" s="4"/>
+      <c r="AI111" s="4"/>
+      <c r="AJ111" s="4"/>
+      <c r="AK111" s="4"/>
+      <c r="AL111" s="4"/>
     </row>
-    <row r="112" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I112" s="5">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J112" s="5">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K112" s="5">
         <v>1</v>
       </c>
       <c r="L112" s="5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M112" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N112" s="5">
         <v>4</v>
       </c>
       <c r="O112" s="5">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P112" s="5">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q112" s="5">
         <v>1</v>
       </c>
       <c r="R112" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S112" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T112" s="5">
         <v>0</v>
@@ -10686,31 +11543,38 @@
       <c r="AC112" s="4"/>
       <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
+      <c r="AF112" s="4"/>
+      <c r="AG112" s="4"/>
+      <c r="AH112" s="4"/>
+      <c r="AI112" s="4"/>
+      <c r="AJ112" s="4"/>
+      <c r="AK112" s="4"/>
+      <c r="AL112" s="4"/>
     </row>
-    <row r="113" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I113" s="5">
         <v>117</v>
@@ -10769,31 +11633,38 @@
       <c r="AC113" s="4"/>
       <c r="AD113" s="4"/>
       <c r="AE113" s="4"/>
+      <c r="AF113" s="4"/>
+      <c r="AG113" s="4"/>
+      <c r="AH113" s="4"/>
+      <c r="AI113" s="4"/>
+      <c r="AJ113" s="4"/>
+      <c r="AK113" s="4"/>
+      <c r="AL113" s="4"/>
     </row>
-    <row r="114" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I114" s="5">
         <v>24</v>
@@ -10852,31 +11723,38 @@
       <c r="AC114" s="4"/>
       <c r="AD114" s="4"/>
       <c r="AE114" s="4"/>
+      <c r="AF114" s="4"/>
+      <c r="AG114" s="4"/>
+      <c r="AH114" s="4"/>
+      <c r="AI114" s="4"/>
+      <c r="AJ114" s="4"/>
+      <c r="AK114" s="4"/>
+      <c r="AL114" s="4"/>
     </row>
-    <row r="115" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I115" s="5">
         <v>589</v>
@@ -10937,31 +11815,38 @@
       <c r="AC115" s="4"/>
       <c r="AD115" s="4"/>
       <c r="AE115" s="4"/>
+      <c r="AF115" s="4"/>
+      <c r="AG115" s="4"/>
+      <c r="AH115" s="4"/>
+      <c r="AI115" s="4"/>
+      <c r="AJ115" s="4"/>
+      <c r="AK115" s="4"/>
+      <c r="AL115" s="4"/>
     </row>
-    <row r="116" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I116" s="5">
         <v>780</v>
@@ -11022,31 +11907,38 @@
       <c r="AC116" s="4"/>
       <c r="AD116" s="4"/>
       <c r="AE116" s="4"/>
+      <c r="AF116" s="4"/>
+      <c r="AG116" s="4"/>
+      <c r="AH116" s="4"/>
+      <c r="AI116" s="4"/>
+      <c r="AJ116" s="4"/>
+      <c r="AK116" s="4"/>
+      <c r="AL116" s="4"/>
     </row>
-    <row r="117" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I117" s="5">
         <v>960</v>
@@ -11107,31 +11999,38 @@
       <c r="AC117" s="4"/>
       <c r="AD117" s="4"/>
       <c r="AE117" s="4"/>
+      <c r="AF117" s="4"/>
+      <c r="AG117" s="4"/>
+      <c r="AH117" s="4"/>
+      <c r="AI117" s="4"/>
+      <c r="AJ117" s="4"/>
+      <c r="AK117" s="4"/>
+      <c r="AL117" s="4"/>
     </row>
-    <row r="118" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I118" s="5">
         <v>93</v>
@@ -11190,31 +12089,38 @@
       <c r="AC118" s="4"/>
       <c r="AD118" s="4"/>
       <c r="AE118" s="4"/>
+      <c r="AF118" s="4"/>
+      <c r="AG118" s="4"/>
+      <c r="AH118" s="4"/>
+      <c r="AI118" s="4"/>
+      <c r="AJ118" s="4"/>
+      <c r="AK118" s="4"/>
+      <c r="AL118" s="4"/>
     </row>
-    <row r="119" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I119" s="5">
         <v>29</v>
@@ -11273,12 +12179,26 @@
       <c r="AC119" s="4"/>
       <c r="AD119" s="4"/>
       <c r="AE119" s="4"/>
+      <c r="AF119" s="4"/>
+      <c r="AG119" s="4"/>
+      <c r="AH119" s="4"/>
+      <c r="AI119" s="4"/>
+      <c r="AJ119" s="4"/>
+      <c r="AK119" s="4"/>
+      <c r="AL119" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="30">
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="I2:K2"/>

--- a/input_data/abutments_fired/abutments_fired_info.xlsx
+++ b/input_data/abutments_fired/abutments_fired_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/abutments_fired/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/abutments_fired/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F5512-4738-5648-9F0B-C59D1E4B3C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2BC357-F2F0-9D4A-9763-B1E9D72306EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="224">
   <si>
     <t>Тип</t>
   </si>
@@ -58,27 +58,6 @@
     <t>ПЛАН</t>
   </si>
   <si>
-    <t>31 янв.</t>
-  </si>
-  <si>
-    <t>01 февр.</t>
-  </si>
-  <si>
-    <t>02 февр.</t>
-  </si>
-  <si>
-    <t>03 февр.</t>
-  </si>
-  <si>
-    <t>04 февр.</t>
-  </si>
-  <si>
-    <t>05 февр.</t>
-  </si>
-  <si>
-    <t>06 февр.</t>
-  </si>
-  <si>
     <t>07 февр.</t>
   </si>
   <si>
@@ -86,6 +65,15 @@
   </si>
   <si>
     <t>09 февр.</t>
+  </si>
+  <si>
+    <t>10 февр.</t>
+  </si>
+  <si>
+    <t>11 февр.</t>
+  </si>
+  <si>
+    <t>12 февр.</t>
   </si>
   <si>
     <t>ОСТ</t>
@@ -712,7 +700,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00&quot; февр.&quot;"/>
-    <numFmt numFmtId="165" formatCode="0&quot; янв.&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot; февр.&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -881,11 +869,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1247,7 +1235,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AL119"/>
+  <dimension ref="A1:AH119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A3"/>
@@ -1277,11 +1265,10 @@
     <col min="26" max="26" width="6.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="7.75" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.75" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="38" width="15.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="34" width="15.25" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1352,20 +1339,8 @@
       <c r="AH1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1375,73 +1350,61 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
       <c r="X2" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC2" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1451,58 +1414,58 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="18"/>
       <c r="AB3" s="21"/>
@@ -1512,35 +1475,31 @@
       <c r="AF3" s="21"/>
       <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-    </row>
-    <row r="4" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4" s="5">
         <v>190</v>
@@ -1604,35 +1563,31 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" s="5">
         <v>945</v>
@@ -1696,35 +1651,31 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-    </row>
-    <row r="6" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I6" s="5">
         <v>101</v>
@@ -1786,68 +1737,64 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-    </row>
-    <row r="7" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I7" s="5">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J7" s="5">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M7" s="5">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N7" s="5">
         <v>0</v>
       </c>
       <c r="O7" s="5">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P7" s="5">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
       </c>
       <c r="R7" s="5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="S7" s="5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="T7" s="5">
         <v>0</v>
@@ -1871,101 +1818,97 @@
         <v>0</v>
       </c>
       <c r="AA7" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB7" s="10">
         <v>2</v>
       </c>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+      <c r="AC7" s="11">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>8</v>
+      </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="11">
-        <v>4</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>5</v>
-      </c>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-    </row>
-    <row r="8" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I8" s="5">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J8" s="5">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M8" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N8" s="5">
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P8" s="5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
       </c>
       <c r="R8" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S8" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T8" s="5">
         <v>0</v>
       </c>
       <c r="U8" s="5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="V8" s="5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="W8" s="5">
         <v>0</v>
       </c>
       <c r="X8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>10</v>
       </c>
       <c r="Z8" s="5">
         <v>0</v>
@@ -1978,35 +1921,31 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-    </row>
-    <row r="9" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I9" s="5">
         <v>89</v>
@@ -2070,35 +2009,31 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-    </row>
-    <row r="10" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I10" s="5">
         <v>643</v>
@@ -2162,86 +2097,82 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-    </row>
-    <row r="11" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I11" s="12">
-        <v>1615</v>
+        <v>1598</v>
       </c>
       <c r="J11" s="12">
-        <v>1615</v>
+        <v>1598</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="M11" s="5">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
       </c>
       <c r="O11" s="12">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="P11" s="12">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="S11" s="5">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="T11" s="5">
         <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="V11" s="5">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
       </c>
       <c r="X11" s="5">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="Y11" s="5">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="Z11" s="5">
         <v>0</v>
@@ -2254,35 +2185,31 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-    </row>
-    <row r="12" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I12" s="12">
         <v>1149</v>
@@ -2346,35 +2273,31 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-    </row>
-    <row r="13" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -2436,50 +2359,46 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-    </row>
-    <row r="14" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" s="5">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J14" s="5">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K14" s="5">
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" s="5">
         <v>0</v>
@@ -2503,19 +2422,19 @@
         <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V14" s="5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W14" s="5">
         <v>0</v>
       </c>
       <c r="X14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>2</v>
       </c>
       <c r="Z14" s="5">
         <v>0</v>
@@ -2528,35 +2447,31 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-    </row>
-    <row r="15" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I15" s="5">
         <v>767</v>
@@ -2620,50 +2535,46 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-    </row>
-    <row r="16" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I16" s="12">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="J16" s="12">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M16" s="5">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
@@ -2686,20 +2597,20 @@
       <c r="T16" s="5">
         <v>0</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="8">
+        <v>47</v>
+      </c>
+      <c r="V16" s="5">
+        <v>47</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
         <v>51</v>
       </c>
-      <c r="V16" s="5">
+      <c r="Y16" s="5">
         <v>51</v>
-      </c>
-      <c r="W16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5">
-        <v>47</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>47</v>
       </c>
       <c r="Z16" s="5">
         <v>0</v>
@@ -2712,68 +2623,64 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-    </row>
-    <row r="17" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I17" s="5">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="J17" s="5">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M17" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N17" s="5">
         <v>1</v>
       </c>
       <c r="O17" s="5">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="P17" s="5">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="5">
         <v>0</v>
       </c>
       <c r="R17" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S17" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T17" s="5">
         <v>0</v>
@@ -2804,68 +2711,64 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-    </row>
-    <row r="18" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I18" s="5">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="J18" s="5">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M18" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
       </c>
       <c r="O18" s="5">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="P18" s="5">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="Q18" s="5">
         <v>0</v>
       </c>
       <c r="R18" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S18" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T18" s="5">
         <v>0</v>
@@ -2896,35 +2799,31 @@
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-    </row>
-    <row r="19" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I19" s="5">
         <v>617</v>
@@ -2988,50 +2887,46 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-    </row>
-    <row r="20" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I20" s="12">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="J20" s="12">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="K20" s="5">
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M20" s="5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N20" s="5">
         <v>0</v>
@@ -3055,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="V20" s="5">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="W20" s="5">
         <v>0</v>
       </c>
       <c r="X20" s="5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y20" s="5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z20" s="5">
         <v>0</v>
@@ -3080,50 +2975,46 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-    </row>
-    <row r="21" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I21" s="5">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="J21" s="5">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="K21" s="5">
         <v>8</v>
       </c>
       <c r="L21" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M21" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N21" s="5">
         <v>0</v>
@@ -3147,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="U21" s="5">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="V21" s="5">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="W21" s="5">
         <v>0</v>
       </c>
       <c r="X21" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y21" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z21" s="5">
         <v>0</v>
@@ -3172,50 +3063,46 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-    </row>
-    <row r="22" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I22" s="5">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J22" s="5">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K22" s="5">
         <v>4</v>
       </c>
       <c r="L22" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N22" s="5">
         <v>0</v>
@@ -3239,19 +3126,19 @@
         <v>0</v>
       </c>
       <c r="U22" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V22" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W22" s="5">
         <v>0</v>
       </c>
       <c r="X22" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y22" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z22" s="5">
         <v>0</v>
@@ -3264,50 +3151,46 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-    </row>
-    <row r="23" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I23" s="5">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J23" s="5">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K23" s="5">
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1</v>
       </c>
       <c r="N23" s="5">
         <v>0</v>
@@ -3331,19 +3214,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="5">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V23" s="5">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W23" s="5">
         <v>0</v>
       </c>
       <c r="X23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>1</v>
       </c>
       <c r="Z23" s="5">
         <v>0</v>
@@ -3356,35 +3239,31 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-    </row>
-    <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I24" s="5">
         <v>689</v>
@@ -3448,35 +3327,31 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-    </row>
-    <row r="25" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I25" s="5">
         <v>741</v>
@@ -3540,35 +3415,31 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-    </row>
-    <row r="26" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I26" s="5">
         <v>292</v>
@@ -3632,35 +3503,31 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-    </row>
-    <row r="27" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I27" s="5">
         <v>212</v>
@@ -3724,43 +3591,39 @@
       </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
+      <c r="AE27" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>10</v>
+      </c>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="11">
-        <v>6</v>
-      </c>
-      <c r="AJ27" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-    </row>
-    <row r="28" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I28" s="5">
         <v>128</v>
@@ -3824,35 +3687,31 @@
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-    </row>
-    <row r="29" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I29" s="5">
         <v>511</v>
@@ -3916,35 +3775,31 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-    </row>
-    <row r="30" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I30" s="5">
         <v>31</v>
@@ -4008,35 +3863,31 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-    </row>
-    <row r="31" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I31" s="5">
         <v>584</v>
@@ -4100,35 +3951,31 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-    </row>
-    <row r="32" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I32" s="5">
         <v>576</v>
@@ -4192,35 +4039,31 @@
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-    </row>
-    <row r="33" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I33" s="5">
         <v>41</v>
@@ -4284,35 +4127,31 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-    </row>
-    <row r="34" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I34" s="5">
         <v>657</v>
@@ -4376,35 +4215,31 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-    </row>
-    <row r="35" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I35" s="5">
         <v>72</v>
@@ -4468,35 +4303,31 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-    </row>
-    <row r="36" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I36" s="5">
         <v>67</v>
@@ -4558,35 +4389,31 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-    </row>
-    <row r="37" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I37" s="5">
         <v>59</v>
@@ -4648,50 +4475,46 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-    </row>
-    <row r="38" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I38" s="5">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J38" s="5">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K38" s="5">
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M38" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N38" s="5">
         <v>0</v>
@@ -4715,19 +4538,19 @@
         <v>0</v>
       </c>
       <c r="U38" s="5">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V38" s="5">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W38" s="5">
         <v>0</v>
       </c>
       <c r="X38" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y38" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z38" s="5">
         <v>0</v>
@@ -4740,35 +4563,31 @@
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-    </row>
-    <row r="39" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I39" s="5">
         <v>387</v>
@@ -4832,35 +4651,31 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-    </row>
-    <row r="40" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I40" s="5">
         <v>26</v>
@@ -4922,35 +4737,31 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-    </row>
-    <row r="41" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I41" s="5">
         <v>486</v>
@@ -5014,35 +4825,31 @@
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-    </row>
-    <row r="42" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I42" s="12">
         <v>1395</v>
@@ -5106,35 +4913,31 @@
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-    </row>
-    <row r="43" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I43" s="5">
         <v>144</v>
@@ -5198,35 +5001,31 @@
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-    </row>
-    <row r="44" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I44" s="5">
         <v>881</v>
@@ -5290,50 +5089,46 @@
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
-    </row>
-    <row r="45" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I45" s="5">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J45" s="5">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K45" s="5">
         <v>0</v>
       </c>
       <c r="L45" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M45" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N45" s="5">
         <v>0</v>
@@ -5357,19 +5152,19 @@
         <v>0</v>
       </c>
       <c r="U45" s="5">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V45" s="5">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W45" s="5">
         <v>0</v>
       </c>
       <c r="X45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>3</v>
       </c>
       <c r="Z45" s="5">
         <v>0</v>
@@ -5382,50 +5177,46 @@
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="4"/>
-    </row>
-    <row r="46" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I46" s="5">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J46" s="5">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K46" s="5">
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M46" s="5">
+        <v>4</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -5449,19 +5240,19 @@
         <v>0</v>
       </c>
       <c r="U46" s="5">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V46" s="5">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W46" s="5">
         <v>0</v>
       </c>
       <c r="X46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>4</v>
       </c>
       <c r="Z46" s="5">
         <v>0</v>
@@ -5474,86 +5265,82 @@
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="4"/>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="4"/>
-    </row>
-    <row r="47" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I47" s="12">
-        <v>1742</v>
+        <v>1624</v>
       </c>
       <c r="J47" s="12">
-        <v>1691</v>
+        <v>1573</v>
       </c>
       <c r="K47" s="5">
         <v>51</v>
       </c>
       <c r="L47" s="5">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="M47" s="5">
-        <v>316</v>
+        <v>450</v>
       </c>
       <c r="N47" s="5">
         <v>55</v>
       </c>
       <c r="O47" s="12">
-        <v>1187</v>
+        <v>1160</v>
       </c>
       <c r="P47" s="12">
-        <v>1187</v>
+        <v>1160</v>
       </c>
       <c r="Q47" s="5">
         <v>0</v>
       </c>
       <c r="R47" s="5">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="S47" s="5">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="T47" s="5">
         <v>40</v>
       </c>
       <c r="U47" s="5">
-        <v>555</v>
+        <v>464</v>
       </c>
       <c r="V47" s="5">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="W47" s="5">
         <v>51</v>
       </c>
       <c r="X47" s="5">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="Y47" s="5">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="Z47" s="5">
         <v>15</v>
@@ -5566,86 +5353,82 @@
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="4"/>
-    </row>
-    <row r="48" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I48" s="12">
-        <v>2404</v>
+        <v>2335</v>
       </c>
       <c r="J48" s="12">
-        <v>2347</v>
+        <v>2278</v>
       </c>
       <c r="K48" s="5">
         <v>57</v>
       </c>
       <c r="L48" s="5">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="M48" s="5">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="N48" s="5">
         <v>20</v>
       </c>
       <c r="O48" s="12">
-        <v>1793</v>
+        <v>1757</v>
       </c>
       <c r="P48" s="12">
-        <v>1786</v>
+        <v>1750</v>
       </c>
       <c r="Q48" s="5">
         <v>7</v>
       </c>
       <c r="R48" s="5">
-        <v>20</v>
-      </c>
-      <c r="S48" s="6">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="S48" s="5">
+        <v>36</v>
       </c>
       <c r="T48" s="5">
         <v>20</v>
       </c>
       <c r="U48" s="5">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="V48" s="5">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="W48" s="5">
         <v>50</v>
       </c>
       <c r="X48" s="5">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="Y48" s="5">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="Z48" s="5">
         <v>0</v>
@@ -5658,86 +5441,82 @@
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="4"/>
-    </row>
-    <row r="49" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I49" s="5">
-        <v>658</v>
+        <v>619</v>
       </c>
       <c r="J49" s="5">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="K49" s="5">
         <v>7</v>
       </c>
       <c r="L49" s="5">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="M49" s="5">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="N49" s="5">
         <v>0</v>
       </c>
       <c r="O49" s="5">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="P49" s="5">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="Q49" s="5">
         <v>2</v>
       </c>
       <c r="R49" s="5">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="S49" s="5">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="T49" s="5">
         <v>0</v>
       </c>
       <c r="U49" s="5">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="V49" s="5">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="W49" s="5">
         <v>5</v>
       </c>
       <c r="X49" s="5">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Y49" s="5">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Z49" s="5">
         <v>0</v>
@@ -5750,50 +5529,46 @@
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
-      <c r="AJ49" s="4"/>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="4"/>
-    </row>
-    <row r="50" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I50" s="5">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="J50" s="5">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K50" s="5">
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M50" s="5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
@@ -5817,19 +5592,19 @@
         <v>0</v>
       </c>
       <c r="U50" s="5">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="V50" s="5">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="W50" s="5">
         <v>0</v>
       </c>
       <c r="X50" s="5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y50" s="5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z50" s="5">
         <v>0</v>
@@ -5842,50 +5617,46 @@
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
       <c r="AH50" s="4"/>
-      <c r="AI50" s="4"/>
-      <c r="AJ50" s="4"/>
-      <c r="AK50" s="4"/>
-      <c r="AL50" s="4"/>
-    </row>
-    <row r="51" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I51" s="5">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J51" s="5">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K51" s="5">
         <v>0</v>
       </c>
       <c r="L51" s="5">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="M51" s="5">
+        <v>9</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
@@ -5909,19 +5680,19 @@
         <v>0</v>
       </c>
       <c r="U51" s="5">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="V51" s="5">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="W51" s="5">
         <v>0</v>
       </c>
       <c r="X51" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="6">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>9</v>
       </c>
       <c r="Z51" s="5">
         <v>0</v>
@@ -5934,35 +5705,31 @@
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
       <c r="AH51" s="4"/>
-      <c r="AI51" s="4"/>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="4"/>
-    </row>
-    <row r="52" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I52" s="5">
         <v>450</v>
@@ -6026,50 +5793,46 @@
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="4"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="4"/>
-    </row>
-    <row r="53" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I53" s="5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J53" s="5">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K53" s="5">
         <v>4</v>
       </c>
       <c r="L53" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M53" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
@@ -6093,19 +5856,19 @@
         <v>0</v>
       </c>
       <c r="U53" s="5">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V53" s="5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W53" s="5">
         <v>4</v>
       </c>
       <c r="X53" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y53" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z53" s="5">
         <v>0</v>
@@ -6118,35 +5881,31 @@
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="4"/>
-    </row>
-    <row r="54" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I54" s="5">
         <v>217</v>
@@ -6210,89 +5969,85 @@
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
-      <c r="AI54" s="4"/>
-      <c r="AJ54" s="4"/>
-      <c r="AK54" s="4"/>
-      <c r="AL54" s="4"/>
-    </row>
-    <row r="55" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I55" s="12">
-        <v>1373</v>
+        <v>1330</v>
       </c>
       <c r="J55" s="12">
-        <v>1371</v>
+        <v>1328</v>
       </c>
       <c r="K55" s="5">
         <v>2</v>
       </c>
       <c r="L55" s="5">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M55" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N55" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O55" s="5">
-        <v>925</v>
+        <v>883</v>
       </c>
       <c r="P55" s="5">
-        <v>925</v>
+        <v>883</v>
       </c>
       <c r="Q55" s="5">
         <v>0</v>
       </c>
       <c r="R55" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S55" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T55" s="5">
         <v>0</v>
       </c>
       <c r="U55" s="5">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="V55" s="5">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W55" s="5">
         <v>2</v>
       </c>
       <c r="X55" s="5">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="Y55" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z55" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
@@ -6302,50 +6057,46 @@
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="4"/>
-    </row>
-    <row r="56" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I56" s="12">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J56" s="12">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="K56" s="5">
         <v>3</v>
       </c>
       <c r="L56" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M56" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -6369,19 +6120,19 @@
         <v>0</v>
       </c>
       <c r="U56" s="5">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V56" s="5">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W56" s="5">
         <v>3</v>
       </c>
       <c r="X56" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y56" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z56" s="5">
         <v>0</v>
@@ -6394,35 +6145,31 @@
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
       <c r="AH56" s="4"/>
-      <c r="AI56" s="4"/>
-      <c r="AJ56" s="4"/>
-      <c r="AK56" s="4"/>
-      <c r="AL56" s="4"/>
-    </row>
-    <row r="57" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I57" s="5">
         <v>155</v>
@@ -6486,35 +6233,31 @@
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
       <c r="AH57" s="4"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="4"/>
-    </row>
-    <row r="58" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I58" s="5">
         <v>123</v>
@@ -6578,59 +6321,55 @@
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
       <c r="AH58" s="4"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="4"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="4"/>
-    </row>
-    <row r="59" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I59" s="5">
-        <v>920</v>
+        <v>866</v>
       </c>
       <c r="J59" s="5">
-        <v>919</v>
+        <v>865</v>
       </c>
       <c r="K59" s="5">
         <v>1</v>
       </c>
       <c r="L59" s="5">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="M59" s="5">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="N59" s="5">
         <v>0</v>
       </c>
       <c r="O59" s="5">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="P59" s="5">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="Q59" s="5">
         <v>1</v>
@@ -6645,19 +6384,19 @@
         <v>0</v>
       </c>
       <c r="U59" s="5">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="V59" s="5">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="W59" s="5">
         <v>0</v>
       </c>
       <c r="X59" s="5">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="Y59" s="5">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="Z59" s="5">
         <v>0</v>
@@ -6670,50 +6409,46 @@
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
       <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-    </row>
-    <row r="60" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I60" s="12">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="J60" s="12">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="K60" s="5">
         <v>4</v>
       </c>
       <c r="L60" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M60" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N60" s="5">
         <v>1</v>
@@ -6737,19 +6472,19 @@
         <v>0</v>
       </c>
       <c r="U60" s="5">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V60" s="5">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W60" s="5">
         <v>0</v>
       </c>
       <c r="X60" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>2</v>
       </c>
       <c r="Z60" s="5">
         <v>1</v>
@@ -6762,35 +6497,31 @@
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
       <c r="AH60" s="4"/>
-      <c r="AI60" s="4"/>
-      <c r="AJ60" s="4"/>
-      <c r="AK60" s="4"/>
-      <c r="AL60" s="4"/>
-    </row>
-    <row r="61" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I61" s="5">
         <v>894</v>
@@ -6854,35 +6585,31 @@
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
       <c r="AH61" s="4"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="4"/>
-      <c r="AK61" s="4"/>
-      <c r="AL61" s="4"/>
-    </row>
-    <row r="62" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I62" s="5">
         <v>164</v>
@@ -6946,35 +6673,31 @@
       <c r="AF62" s="4"/>
       <c r="AG62" s="4"/>
       <c r="AH62" s="4"/>
-      <c r="AI62" s="4"/>
-      <c r="AJ62" s="4"/>
-      <c r="AK62" s="4"/>
-      <c r="AL62" s="4"/>
-    </row>
-    <row r="63" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I63" s="5">
         <v>514</v>
@@ -7038,35 +6761,31 @@
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
       <c r="AH63" s="4"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-    </row>
-    <row r="64" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I64" s="5">
         <v>164</v>
@@ -7130,68 +6849,64 @@
       <c r="AF64" s="4"/>
       <c r="AG64" s="4"/>
       <c r="AH64" s="4"/>
-      <c r="AI64" s="4"/>
-      <c r="AJ64" s="4"/>
-      <c r="AK64" s="4"/>
-      <c r="AL64" s="4"/>
-    </row>
-    <row r="65" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I65" s="5">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J65" s="5">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K65" s="5">
         <v>3</v>
       </c>
       <c r="L65" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M65" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N65" s="5">
         <v>0</v>
       </c>
       <c r="O65" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P65" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q65" s="5">
         <v>3</v>
       </c>
       <c r="R65" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S65" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T65" s="5">
         <v>0</v>
@@ -7224,41 +6939,37 @@
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
-      <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
-      <c r="AI65" s="4"/>
-      <c r="AJ65" s="4"/>
-      <c r="AK65" s="11">
-        <v>8</v>
-      </c>
-      <c r="AL65" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG65" s="14">
+        <v>11</v>
+      </c>
+      <c r="AH65" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="F66" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I66" s="5">
         <v>946</v>
@@ -7322,35 +7033,31 @@
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
       <c r="AH66" s="4"/>
-      <c r="AI66" s="4"/>
-      <c r="AJ66" s="4"/>
-      <c r="AK66" s="4"/>
-      <c r="AL66" s="4"/>
-    </row>
-    <row r="67" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I67" s="5">
         <v>37</v>
@@ -7414,35 +7121,31 @@
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
       <c r="AH67" s="4"/>
-      <c r="AI67" s="4"/>
-      <c r="AJ67" s="4"/>
-      <c r="AK67" s="4"/>
-      <c r="AL67" s="4"/>
-    </row>
-    <row r="68" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I68" s="5">
         <v>132</v>
@@ -7506,50 +7209,46 @@
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
       <c r="AH68" s="4"/>
-      <c r="AI68" s="4"/>
-      <c r="AJ68" s="4"/>
-      <c r="AK68" s="4"/>
-      <c r="AL68" s="4"/>
-    </row>
-    <row r="69" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I69" s="5">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="J69" s="5">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="K69" s="5">
         <v>7</v>
       </c>
       <c r="L69" s="5">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M69" s="5">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N69" s="5">
         <v>0</v>
@@ -7573,19 +7272,19 @@
         <v>0</v>
       </c>
       <c r="U69" s="5">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="V69" s="5">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="W69" s="5">
         <v>6</v>
       </c>
       <c r="X69" s="5">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Y69" s="5">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Z69" s="5">
         <v>0</v>
@@ -7598,68 +7297,64 @@
       <c r="AF69" s="4"/>
       <c r="AG69" s="4"/>
       <c r="AH69" s="4"/>
-      <c r="AI69" s="4"/>
-      <c r="AJ69" s="4"/>
-      <c r="AK69" s="4"/>
-      <c r="AL69" s="4"/>
-    </row>
-    <row r="70" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I70" s="5">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="J70" s="5">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K70" s="5">
         <v>0</v>
       </c>
       <c r="L70" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M70" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N70" s="5">
         <v>0</v>
       </c>
       <c r="O70" s="5">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P70" s="5">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Q70" s="5">
         <v>0</v>
       </c>
       <c r="R70" s="5">
-        <v>0</v>
-      </c>
-      <c r="S70" s="6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S70" s="5">
+        <v>10</v>
       </c>
       <c r="T70" s="5">
         <v>0</v>
@@ -7690,86 +7385,82 @@
       <c r="AF70" s="4"/>
       <c r="AG70" s="4"/>
       <c r="AH70" s="4"/>
-      <c r="AI70" s="4"/>
-      <c r="AJ70" s="4"/>
-      <c r="AK70" s="4"/>
-      <c r="AL70" s="4"/>
-    </row>
-    <row r="71" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I71" s="5">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="J71" s="5">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="K71" s="5">
         <v>0</v>
       </c>
       <c r="L71" s="5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M71" s="5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N71" s="5">
         <v>0</v>
       </c>
       <c r="O71" s="5">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="P71" s="5">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="Q71" s="5">
         <v>0</v>
       </c>
       <c r="R71" s="5">
-        <v>0</v>
-      </c>
-      <c r="S71" s="6">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="S71" s="5">
+        <v>7</v>
       </c>
       <c r="T71" s="5">
         <v>0</v>
       </c>
       <c r="U71" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="V71" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W71" s="5">
         <v>0</v>
       </c>
       <c r="X71" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y71" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z71" s="5">
         <v>0</v>
@@ -7782,35 +7473,31 @@
       <c r="AF71" s="4"/>
       <c r="AG71" s="4"/>
       <c r="AH71" s="4"/>
-      <c r="AI71" s="4"/>
-      <c r="AJ71" s="4"/>
-      <c r="AK71" s="4"/>
-      <c r="AL71" s="4"/>
-    </row>
-    <row r="72" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="E72" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I72" s="5">
         <v>502</v>
@@ -7874,35 +7561,31 @@
       <c r="AF72" s="4"/>
       <c r="AG72" s="4"/>
       <c r="AH72" s="4"/>
-      <c r="AI72" s="4"/>
-      <c r="AJ72" s="4"/>
-      <c r="AK72" s="4"/>
-      <c r="AL72" s="4"/>
-    </row>
-    <row r="73" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="E73" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I73" s="12">
         <v>1052</v>
@@ -7966,68 +7649,64 @@
       <c r="AF73" s="4"/>
       <c r="AG73" s="4"/>
       <c r="AH73" s="4"/>
-      <c r="AI73" s="4"/>
-      <c r="AJ73" s="4"/>
-      <c r="AK73" s="4"/>
-      <c r="AL73" s="4"/>
-    </row>
-    <row r="74" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>159</v>
+        <v>45</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I74" s="8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J74" s="5">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K74" s="5">
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M74" s="5">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N74" s="5">
         <v>0</v>
       </c>
       <c r="O74" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P74" s="5">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q74" s="5">
         <v>0</v>
       </c>
       <c r="R74" s="8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="S74" s="5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="T74" s="5">
         <v>0</v>
@@ -8050,55 +7729,39 @@
       <c r="Z74" s="5">
         <v>0</v>
       </c>
-      <c r="AA74" s="5">
-        <v>11</v>
-      </c>
-      <c r="AB74" s="10">
-        <v>4</v>
-      </c>
-      <c r="AC74" s="15">
-        <v>31</v>
-      </c>
-      <c r="AD74" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE74" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF74" s="11">
-        <v>3</v>
-      </c>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
       <c r="AG74" s="4"/>
       <c r="AH74" s="4"/>
-      <c r="AI74" s="4"/>
-      <c r="AJ74" s="4"/>
-      <c r="AK74" s="4"/>
-      <c r="AL74" s="4"/>
-    </row>
-    <row r="75" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I75" s="5">
         <v>162</v>
@@ -8162,35 +7825,31 @@
       <c r="AF75" s="4"/>
       <c r="AG75" s="4"/>
       <c r="AH75" s="4"/>
-      <c r="AI75" s="4"/>
-      <c r="AJ75" s="4"/>
-      <c r="AK75" s="4"/>
-      <c r="AL75" s="4"/>
-    </row>
-    <row r="76" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I76" s="5">
         <v>56</v>
@@ -8254,68 +7913,64 @@
       <c r="AF76" s="4"/>
       <c r="AG76" s="4"/>
       <c r="AH76" s="4"/>
-      <c r="AI76" s="4"/>
-      <c r="AJ76" s="4"/>
-      <c r="AK76" s="4"/>
-      <c r="AL76" s="4"/>
-    </row>
-    <row r="77" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I77" s="5">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J77" s="5">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K77" s="5">
         <v>0</v>
       </c>
       <c r="L77" s="5">
-        <v>0</v>
-      </c>
-      <c r="M77" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M77" s="5">
+        <v>4</v>
       </c>
       <c r="N77" s="5">
         <v>0</v>
       </c>
       <c r="O77" s="5">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P77" s="5">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q77" s="5">
         <v>0</v>
       </c>
       <c r="R77" s="5">
-        <v>0</v>
-      </c>
-      <c r="S77" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S77" s="5">
+        <v>4</v>
       </c>
       <c r="T77" s="5">
         <v>0</v>
@@ -8344,50 +7999,46 @@
       <c r="AF77" s="4"/>
       <c r="AG77" s="4"/>
       <c r="AH77" s="4"/>
-      <c r="AI77" s="4"/>
-      <c r="AJ77" s="4"/>
-      <c r="AK77" s="4"/>
-      <c r="AL77" s="4"/>
-    </row>
-    <row r="78" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="5">
+        <v>796</v>
+      </c>
+      <c r="J78" s="5">
+        <v>796</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0</v>
+      </c>
+      <c r="L78" s="5">
         <v>35</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="M78" s="5">
         <v>35</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I78" s="5">
-        <v>801</v>
-      </c>
-      <c r="J78" s="5">
-        <v>801</v>
-      </c>
-      <c r="K78" s="5">
-        <v>0</v>
-      </c>
-      <c r="L78" s="5">
-        <v>30</v>
-      </c>
-      <c r="M78" s="5">
-        <v>30</v>
       </c>
       <c r="N78" s="5">
         <v>0</v>
@@ -8411,19 +8062,19 @@
         <v>0</v>
       </c>
       <c r="U78" s="5">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="V78" s="5">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="W78" s="5">
         <v>0</v>
       </c>
       <c r="X78" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y78" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z78" s="5">
         <v>0</v>
@@ -8436,86 +8087,82 @@
       <c r="AF78" s="4"/>
       <c r="AG78" s="4"/>
       <c r="AH78" s="4"/>
-      <c r="AI78" s="4"/>
-      <c r="AJ78" s="4"/>
-      <c r="AK78" s="4"/>
-      <c r="AL78" s="4"/>
-    </row>
-    <row r="79" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="5">
+        <v>217</v>
+      </c>
+      <c r="J79" s="5">
+        <v>217</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0</v>
+      </c>
+      <c r="L79" s="5">
         <v>30</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I79" s="5">
-        <v>226</v>
-      </c>
-      <c r="J79" s="5">
-        <v>226</v>
-      </c>
-      <c r="K79" s="5">
-        <v>0</v>
-      </c>
-      <c r="L79" s="5">
-        <v>21</v>
-      </c>
       <c r="M79" s="5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N79" s="5">
         <v>0</v>
       </c>
       <c r="O79" s="5">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P79" s="5">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q79" s="5">
         <v>0</v>
       </c>
       <c r="R79" s="5">
-        <v>0</v>
-      </c>
-      <c r="S79" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S79" s="5">
+        <v>4</v>
       </c>
       <c r="T79" s="5">
         <v>0</v>
       </c>
       <c r="U79" s="5">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="V79" s="5">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="W79" s="5">
         <v>0</v>
       </c>
       <c r="X79" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y79" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z79" s="5">
         <v>0</v>
@@ -8528,50 +8175,46 @@
       <c r="AF79" s="4"/>
       <c r="AG79" s="4"/>
       <c r="AH79" s="4"/>
-      <c r="AI79" s="4"/>
-      <c r="AJ79" s="4"/>
-      <c r="AK79" s="4"/>
-      <c r="AL79" s="4"/>
-    </row>
-    <row r="80" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="F80" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I80" s="5">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J80" s="5">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K80" s="5">
         <v>0</v>
       </c>
       <c r="L80" s="5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M80" s="5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N80" s="5">
         <v>0</v>
@@ -8595,19 +8238,19 @@
         <v>0</v>
       </c>
       <c r="U80" s="5">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="V80" s="5">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="W80" s="5">
         <v>0</v>
       </c>
       <c r="X80" s="5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Y80" s="5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z80" s="5">
         <v>0</v>
@@ -8620,59 +8263,55 @@
       <c r="AF80" s="4"/>
       <c r="AG80" s="4"/>
       <c r="AH80" s="4"/>
-      <c r="AI80" s="4"/>
-      <c r="AJ80" s="4"/>
-      <c r="AK80" s="4"/>
-      <c r="AL80" s="4"/>
-    </row>
-    <row r="81" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I81" s="12">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="J81" s="12">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="K81" s="5">
         <v>1</v>
       </c>
       <c r="L81" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M81" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N81" s="5">
         <v>0</v>
       </c>
       <c r="O81" s="5">
-        <v>883</v>
+        <v>833</v>
       </c>
       <c r="P81" s="5">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="Q81" s="5">
         <v>1</v>
@@ -8687,19 +8326,19 @@
         <v>0</v>
       </c>
       <c r="U81" s="5">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="V81" s="5">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="W81" s="5">
         <v>0</v>
       </c>
       <c r="X81" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y81" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z81" s="5">
         <v>0</v>
@@ -8712,35 +8351,31 @@
       <c r="AF81" s="4"/>
       <c r="AG81" s="4"/>
       <c r="AH81" s="4"/>
-      <c r="AI81" s="4"/>
-      <c r="AJ81" s="4"/>
-      <c r="AK81" s="4"/>
-      <c r="AL81" s="4"/>
-    </row>
-    <row r="82" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I82" s="5">
         <v>916</v>
@@ -8804,44 +8439,42 @@
       <c r="AF82" s="4"/>
       <c r="AG82" s="4"/>
       <c r="AH82" s="4"/>
-      <c r="AI82" s="4"/>
-      <c r="AJ82" s="4"/>
-      <c r="AK82" s="4"/>
-      <c r="AL82" s="4"/>
-    </row>
-    <row r="83" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>172</v>
+        <v>45</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I83" s="8">
-        <v>0</v>
-      </c>
-      <c r="J83" s="9"/>
+        <v>169</v>
+      </c>
+      <c r="I83" s="5">
+        <v>572</v>
+      </c>
+      <c r="J83" s="5">
+        <v>572</v>
+      </c>
       <c r="K83" s="5">
         <v>0</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L83" s="5">
         <v>499</v>
       </c>
       <c r="M83" s="5">
@@ -8850,14 +8483,16 @@
       <c r="N83" s="5">
         <v>0</v>
       </c>
-      <c r="O83" s="8">
-        <v>0</v>
-      </c>
-      <c r="P83" s="9"/>
+      <c r="O83" s="5">
+        <v>572</v>
+      </c>
+      <c r="P83" s="5">
+        <v>572</v>
+      </c>
       <c r="Q83" s="5">
         <v>0</v>
       </c>
-      <c r="R83" s="8">
+      <c r="R83" s="5">
         <v>439</v>
       </c>
       <c r="S83" s="5">
@@ -8890,86 +8525,82 @@
       <c r="AF83" s="4"/>
       <c r="AG83" s="4"/>
       <c r="AH83" s="4"/>
-      <c r="AI83" s="4"/>
-      <c r="AJ83" s="4"/>
-      <c r="AK83" s="4"/>
-      <c r="AL83" s="4"/>
-    </row>
-    <row r="84" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I84" s="5">
-        <v>928</v>
+        <v>815</v>
       </c>
       <c r="J84" s="5">
-        <v>907</v>
+        <v>793</v>
       </c>
       <c r="K84" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L84" s="5">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="M84" s="5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N84" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O84" s="5">
-        <v>377</v>
+        <v>266</v>
       </c>
       <c r="P84" s="5">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="Q84" s="5">
         <v>3</v>
       </c>
       <c r="R84" s="5">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="S84" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T84" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U84" s="5">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="V84" s="5">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="W84" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X84" s="5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Y84" s="5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Z84" s="5">
         <v>0</v>
@@ -8982,35 +8613,31 @@
       <c r="AF84" s="4"/>
       <c r="AG84" s="4"/>
       <c r="AH84" s="4"/>
-      <c r="AI84" s="4"/>
-      <c r="AJ84" s="4"/>
-      <c r="AK84" s="4"/>
-      <c r="AL84" s="4"/>
-    </row>
-    <row r="85" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I85" s="5">
         <v>436</v>
@@ -9031,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="O85" s="5">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="P85" s="5">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="Q85" s="5">
         <v>0</v>
@@ -9049,10 +8676,10 @@
         <v>0</v>
       </c>
       <c r="U85" s="5">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="V85" s="5">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="W85" s="5">
         <v>0</v>
@@ -9074,59 +8701,55 @@
       <c r="AF85" s="4"/>
       <c r="AG85" s="4"/>
       <c r="AH85" s="4"/>
-      <c r="AI85" s="4"/>
-      <c r="AJ85" s="4"/>
-      <c r="AK85" s="4"/>
-      <c r="AL85" s="4"/>
-    </row>
-    <row r="86" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I86" s="12">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J86" s="12">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K86" s="5">
         <v>0</v>
       </c>
       <c r="L86" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" s="6">
         <v>0</v>
       </c>
       <c r="N86" s="5">
-        <v>0</v>
-      </c>
-      <c r="O86" s="12">
-        <v>1004</v>
-      </c>
-      <c r="P86" s="12">
-        <v>1004</v>
+        <v>1</v>
+      </c>
+      <c r="O86" s="5">
+        <v>903</v>
+      </c>
+      <c r="P86" s="5">
+        <v>903</v>
       </c>
       <c r="Q86" s="5">
         <v>0</v>
@@ -9141,22 +8764,22 @@
         <v>0</v>
       </c>
       <c r="U86" s="5">
-        <v>228</v>
+        <v>328</v>
       </c>
       <c r="V86" s="5">
-        <v>228</v>
+        <v>328</v>
       </c>
       <c r="W86" s="5">
         <v>0</v>
       </c>
       <c r="X86" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86" s="6">
         <v>0</v>
       </c>
       <c r="Z86" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA86" s="7"/>
       <c r="AB86" s="7"/>
@@ -9166,50 +8789,46 @@
       <c r="AF86" s="4"/>
       <c r="AG86" s="4"/>
       <c r="AH86" s="4"/>
-      <c r="AI86" s="4"/>
-      <c r="AJ86" s="4"/>
-      <c r="AK86" s="4"/>
-      <c r="AL86" s="4"/>
-    </row>
-    <row r="87" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I87" s="5">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J87" s="5">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K87" s="5">
         <v>1</v>
       </c>
       <c r="L87" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M87" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N87" s="5">
         <v>0</v>
@@ -9233,19 +8852,19 @@
         <v>0</v>
       </c>
       <c r="U87" s="5">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V87" s="5">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W87" s="5">
         <v>0</v>
       </c>
       <c r="X87" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y87" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z87" s="5">
         <v>0</v>
@@ -9258,35 +8877,31 @@
       <c r="AF87" s="4"/>
       <c r="AG87" s="4"/>
       <c r="AH87" s="4"/>
-      <c r="AI87" s="4"/>
-      <c r="AJ87" s="4"/>
-      <c r="AK87" s="4"/>
-      <c r="AL87" s="4"/>
-    </row>
-    <row r="88" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="F88" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I88" s="5">
         <v>426</v>
@@ -9307,10 +8922,10 @@
         <v>0</v>
       </c>
       <c r="O88" s="5">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="P88" s="5">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="Q88" s="5">
         <v>0</v>
@@ -9325,10 +8940,10 @@
         <v>0</v>
       </c>
       <c r="U88" s="5">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="V88" s="5">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="W88" s="5">
         <v>0</v>
@@ -9350,35 +8965,31 @@
       <c r="AF88" s="4"/>
       <c r="AG88" s="4"/>
       <c r="AH88" s="4"/>
-      <c r="AI88" s="4"/>
-      <c r="AJ88" s="4"/>
-      <c r="AK88" s="4"/>
-      <c r="AL88" s="4"/>
-    </row>
-    <row r="89" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I89" s="5">
         <v>114</v>
@@ -9440,59 +9051,55 @@
       <c r="AF89" s="4"/>
       <c r="AG89" s="4"/>
       <c r="AH89" s="4"/>
-      <c r="AI89" s="4"/>
-      <c r="AJ89" s="4"/>
-      <c r="AK89" s="4"/>
-      <c r="AL89" s="4"/>
-    </row>
-    <row r="90" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I90" s="5">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J90" s="5">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K90" s="5">
         <v>0</v>
       </c>
       <c r="L90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" s="6">
         <v>0</v>
       </c>
       <c r="N90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" s="5">
-        <v>611</v>
+        <v>510</v>
       </c>
       <c r="P90" s="5">
-        <v>611</v>
+        <v>510</v>
       </c>
       <c r="Q90" s="5">
         <v>0</v>
@@ -9507,20 +9114,22 @@
         <v>0</v>
       </c>
       <c r="U90" s="5">
-        <v>0</v>
-      </c>
-      <c r="V90" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="V90" s="5">
+        <v>100</v>
+      </c>
       <c r="W90" s="5">
         <v>0</v>
       </c>
       <c r="X90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y90" s="6">
         <v>0</v>
       </c>
       <c r="Z90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA90" s="7"/>
       <c r="AB90" s="7"/>
@@ -9530,35 +9139,31 @@
       <c r="AF90" s="4"/>
       <c r="AG90" s="4"/>
       <c r="AH90" s="4"/>
-      <c r="AI90" s="4"/>
-      <c r="AJ90" s="4"/>
-      <c r="AK90" s="4"/>
-      <c r="AL90" s="4"/>
-    </row>
-    <row r="91" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I91" s="5">
         <v>23</v>
@@ -9620,86 +9225,82 @@
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>
       <c r="AH91" s="4"/>
-      <c r="AI91" s="4"/>
-      <c r="AJ91" s="4"/>
-      <c r="AK91" s="4"/>
-      <c r="AL91" s="4"/>
-    </row>
-    <row r="92" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I92" s="12">
-        <v>2221</v>
+        <v>2193</v>
       </c>
       <c r="J92" s="12">
-        <v>2220</v>
+        <v>2192</v>
       </c>
       <c r="K92" s="5">
         <v>1</v>
       </c>
       <c r="L92" s="5">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M92" s="5">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N92" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O92" s="12">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="P92" s="12">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="Q92" s="5">
         <v>0</v>
       </c>
       <c r="R92" s="5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S92" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T92" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U92" s="5">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="V92" s="5">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="W92" s="5">
         <v>1</v>
       </c>
       <c r="X92" s="5">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="Y92" s="5">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="Z92" s="5">
         <v>0</v>
@@ -9712,86 +9313,82 @@
       <c r="AF92" s="4"/>
       <c r="AG92" s="4"/>
       <c r="AH92" s="4"/>
-      <c r="AI92" s="4"/>
-      <c r="AJ92" s="4"/>
-      <c r="AK92" s="4"/>
-      <c r="AL92" s="4"/>
-    </row>
-    <row r="93" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I93" s="5">
-        <v>980</v>
+        <v>914</v>
       </c>
       <c r="J93" s="5">
-        <v>978</v>
+        <v>912</v>
       </c>
       <c r="K93" s="5">
         <v>2</v>
       </c>
       <c r="L93" s="5">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="M93" s="5">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="N93" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O93" s="5">
-        <v>775</v>
+        <v>719</v>
       </c>
       <c r="P93" s="5">
-        <v>775</v>
+        <v>719</v>
       </c>
       <c r="Q93" s="5">
         <v>0</v>
       </c>
       <c r="R93" s="5">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="S93" s="5">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="T93" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="U93" s="5">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="V93" s="5">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="W93" s="5">
         <v>2</v>
       </c>
       <c r="X93" s="5">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Y93" s="5">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Z93" s="5">
         <v>0</v>
@@ -9804,89 +9401,85 @@
       <c r="AF93" s="4"/>
       <c r="AG93" s="4"/>
       <c r="AH93" s="4"/>
-      <c r="AI93" s="4"/>
-      <c r="AJ93" s="4"/>
-      <c r="AK93" s="4"/>
-      <c r="AL93" s="4"/>
-    </row>
-    <row r="94" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="F94" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I94" s="12">
-        <v>2172</v>
+        <v>1983</v>
       </c>
       <c r="J94" s="12">
-        <v>2162</v>
+        <v>1973</v>
       </c>
       <c r="K94" s="5">
         <v>10</v>
       </c>
       <c r="L94" s="5">
-        <v>419</v>
+        <v>618</v>
       </c>
       <c r="M94" s="5">
-        <v>373</v>
+        <v>568</v>
       </c>
       <c r="N94" s="5">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O94" s="12">
-        <v>1423</v>
+        <v>1392</v>
       </c>
       <c r="P94" s="12">
-        <v>1413</v>
+        <v>1382</v>
       </c>
       <c r="Q94" s="5">
         <v>10</v>
       </c>
       <c r="R94" s="5">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="S94" s="5">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="T94" s="5">
         <v>40</v>
       </c>
       <c r="U94" s="5">
-        <v>749</v>
+        <v>591</v>
       </c>
       <c r="V94" s="5">
-        <v>749</v>
+        <v>591</v>
       </c>
       <c r="W94" s="5">
         <v>0</v>
       </c>
       <c r="X94" s="5">
-        <v>272</v>
+        <v>434</v>
       </c>
       <c r="Y94" s="5">
-        <v>266</v>
+        <v>424</v>
       </c>
       <c r="Z94" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA94" s="7"/>
       <c r="AB94" s="7"/>
@@ -9896,86 +9489,82 @@
       <c r="AF94" s="4"/>
       <c r="AG94" s="4"/>
       <c r="AH94" s="4"/>
-      <c r="AI94" s="4"/>
-      <c r="AJ94" s="4"/>
-      <c r="AK94" s="4"/>
-      <c r="AL94" s="4"/>
-    </row>
-    <row r="95" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I95" s="12">
-        <v>1697</v>
+        <v>1600</v>
       </c>
       <c r="J95" s="12">
-        <v>1691</v>
+        <v>1594</v>
       </c>
       <c r="K95" s="5">
         <v>6</v>
       </c>
       <c r="L95" s="5">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="M95" s="5">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="N95" s="5">
         <v>52</v>
       </c>
       <c r="O95" s="12">
-        <v>1198</v>
+        <v>1115</v>
       </c>
       <c r="P95" s="12">
-        <v>1198</v>
+        <v>1115</v>
       </c>
       <c r="Q95" s="5">
         <v>0</v>
       </c>
       <c r="R95" s="5">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="S95" s="5">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="T95" s="5">
         <v>50</v>
       </c>
       <c r="U95" s="5">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="V95" s="5">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="W95" s="5">
         <v>6</v>
       </c>
       <c r="X95" s="5">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Y95" s="5">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="Z95" s="5">
         <v>2</v>
@@ -9988,50 +9577,46 @@
       <c r="AF95" s="4"/>
       <c r="AG95" s="4"/>
       <c r="AH95" s="4"/>
-      <c r="AI95" s="4"/>
-      <c r="AJ95" s="4"/>
-      <c r="AK95" s="4"/>
-      <c r="AL95" s="4"/>
-    </row>
-    <row r="96" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I96" s="12">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="J96" s="12">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="K96" s="5">
         <v>0</v>
       </c>
       <c r="L96" s="5">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M96" s="5">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N96" s="5">
         <v>24</v>
@@ -10055,19 +9640,19 @@
         <v>10</v>
       </c>
       <c r="U96" s="5">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="V96" s="5">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="W96" s="5">
         <v>0</v>
       </c>
       <c r="X96" s="5">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Y96" s="5">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z96" s="5">
         <v>14</v>
@@ -10080,35 +9665,31 @@
       <c r="AF96" s="4"/>
       <c r="AG96" s="4"/>
       <c r="AH96" s="4"/>
-      <c r="AI96" s="4"/>
-      <c r="AJ96" s="4"/>
-      <c r="AK96" s="4"/>
-      <c r="AL96" s="4"/>
-    </row>
-    <row r="97" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I97" s="5">
         <v>424</v>
@@ -10172,35 +9753,31 @@
       <c r="AF97" s="4"/>
       <c r="AG97" s="4"/>
       <c r="AH97" s="4"/>
-      <c r="AI97" s="4"/>
-      <c r="AJ97" s="4"/>
-      <c r="AK97" s="4"/>
-      <c r="AL97" s="4"/>
-    </row>
-    <row r="98" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I98" s="5">
         <v>696</v>
@@ -10264,35 +9841,31 @@
       <c r="AF98" s="4"/>
       <c r="AG98" s="4"/>
       <c r="AH98" s="4"/>
-      <c r="AI98" s="4"/>
-      <c r="AJ98" s="4"/>
-      <c r="AK98" s="4"/>
-      <c r="AL98" s="4"/>
-    </row>
-    <row r="99" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="F99" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I99" s="5">
         <v>31</v>
@@ -10354,35 +9927,31 @@
       <c r="AF99" s="4"/>
       <c r="AG99" s="4"/>
       <c r="AH99" s="4"/>
-      <c r="AI99" s="4"/>
-      <c r="AJ99" s="4"/>
-      <c r="AK99" s="4"/>
-      <c r="AL99" s="4"/>
-    </row>
-    <row r="100" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I100" s="5">
         <v>449</v>
@@ -10446,86 +10015,82 @@
       <c r="AF100" s="4"/>
       <c r="AG100" s="4"/>
       <c r="AH100" s="4"/>
-      <c r="AI100" s="4"/>
-      <c r="AJ100" s="4"/>
-      <c r="AK100" s="4"/>
-      <c r="AL100" s="4"/>
-    </row>
-    <row r="101" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I101" s="5">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J101" s="5">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K101" s="5">
         <v>2</v>
       </c>
       <c r="L101" s="5">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M101" s="5">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N101" s="5">
         <v>0</v>
       </c>
       <c r="O101" s="5">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P101" s="5">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q101" s="5">
         <v>2</v>
       </c>
       <c r="R101" s="5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S101" s="5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T101" s="5">
         <v>0</v>
       </c>
       <c r="U101" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V101" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W101" s="5">
         <v>0</v>
       </c>
       <c r="X101" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y101" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z101" s="5">
         <v>0</v>
@@ -10538,35 +10103,31 @@
       <c r="AF101" s="4"/>
       <c r="AG101" s="4"/>
       <c r="AH101" s="4"/>
-      <c r="AI101" s="4"/>
-      <c r="AJ101" s="4"/>
-      <c r="AK101" s="4"/>
-      <c r="AL101" s="4"/>
-    </row>
-    <row r="102" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I102" s="5">
         <v>586</v>
@@ -10630,68 +10191,64 @@
       <c r="AF102" s="4"/>
       <c r="AG102" s="4"/>
       <c r="AH102" s="4"/>
-      <c r="AI102" s="4"/>
-      <c r="AJ102" s="4"/>
-      <c r="AK102" s="4"/>
-      <c r="AL102" s="4"/>
-    </row>
-    <row r="103" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="E103" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I103" s="5">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J103" s="5">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K103" s="5">
         <v>2</v>
       </c>
       <c r="L103" s="5">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M103" s="5">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N103" s="5">
         <v>0</v>
       </c>
       <c r="O103" s="5">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P103" s="5">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q103" s="5">
         <v>2</v>
       </c>
       <c r="R103" s="5">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="S103" s="5">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T103" s="5">
         <v>0</v>
@@ -10722,35 +10279,31 @@
       <c r="AF103" s="4"/>
       <c r="AG103" s="4"/>
       <c r="AH103" s="4"/>
-      <c r="AI103" s="4"/>
-      <c r="AJ103" s="4"/>
-      <c r="AK103" s="4"/>
-      <c r="AL103" s="4"/>
-    </row>
-    <row r="104" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="E104" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I104" s="12">
         <v>1090</v>
@@ -10814,35 +10367,31 @@
       <c r="AF104" s="4"/>
       <c r="AG104" s="4"/>
       <c r="AH104" s="4"/>
-      <c r="AI104" s="4"/>
-      <c r="AJ104" s="4"/>
-      <c r="AK104" s="4"/>
-      <c r="AL104" s="4"/>
-    </row>
-    <row r="105" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -10904,35 +10453,31 @@
       <c r="AF105" s="4"/>
       <c r="AG105" s="4"/>
       <c r="AH105" s="4"/>
-      <c r="AI105" s="4"/>
-      <c r="AJ105" s="4"/>
-      <c r="AK105" s="4"/>
-      <c r="AL105" s="4"/>
-    </row>
-    <row r="106" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I106" s="12">
         <v>1209</v>
@@ -10996,35 +10541,31 @@
       <c r="AF106" s="4"/>
       <c r="AG106" s="4"/>
       <c r="AH106" s="4"/>
-      <c r="AI106" s="4"/>
-      <c r="AJ106" s="4"/>
-      <c r="AK106" s="4"/>
-      <c r="AL106" s="4"/>
-    </row>
-    <row r="107" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I107" s="5">
         <v>936</v>
@@ -11088,35 +10629,31 @@
       <c r="AF107" s="4"/>
       <c r="AG107" s="4"/>
       <c r="AH107" s="4"/>
-      <c r="AI107" s="4"/>
-      <c r="AJ107" s="4"/>
-      <c r="AK107" s="4"/>
-      <c r="AL107" s="4"/>
-    </row>
-    <row r="108" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I108" s="5">
         <v>422</v>
@@ -11180,35 +10717,31 @@
       <c r="AF108" s="4"/>
       <c r="AG108" s="4"/>
       <c r="AH108" s="4"/>
-      <c r="AI108" s="4"/>
-      <c r="AJ108" s="4"/>
-      <c r="AK108" s="4"/>
-      <c r="AL108" s="4"/>
-    </row>
-    <row r="109" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I109" s="5">
         <v>486</v>
@@ -11272,68 +10805,64 @@
       <c r="AF109" s="4"/>
       <c r="AG109" s="4"/>
       <c r="AH109" s="4"/>
-      <c r="AI109" s="4"/>
-      <c r="AJ109" s="4"/>
-      <c r="AK109" s="4"/>
-      <c r="AL109" s="4"/>
-    </row>
-    <row r="110" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="F110" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I110" s="5">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="J110" s="5">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K110" s="5">
         <v>0</v>
       </c>
       <c r="L110" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M110" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N110" s="5">
         <v>0</v>
       </c>
       <c r="O110" s="5">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="P110" s="5">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Q110" s="5">
         <v>0</v>
       </c>
       <c r="R110" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S110" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T110" s="5">
         <v>0</v>
@@ -11364,35 +10893,31 @@
       <c r="AF110" s="4"/>
       <c r="AG110" s="4"/>
       <c r="AH110" s="4"/>
-      <c r="AI110" s="4"/>
-      <c r="AJ110" s="4"/>
-      <c r="AK110" s="4"/>
-      <c r="AL110" s="4"/>
-    </row>
-    <row r="111" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I111" s="5">
         <v>137</v>
@@ -11454,35 +10979,31 @@
       <c r="AF111" s="4"/>
       <c r="AG111" s="4"/>
       <c r="AH111" s="4"/>
-      <c r="AI111" s="4"/>
-      <c r="AJ111" s="4"/>
-      <c r="AK111" s="4"/>
-      <c r="AL111" s="4"/>
-    </row>
-    <row r="112" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I112" s="5">
         <v>41</v>
@@ -11546,35 +11067,31 @@
       <c r="AF112" s="4"/>
       <c r="AG112" s="4"/>
       <c r="AH112" s="4"/>
-      <c r="AI112" s="4"/>
-      <c r="AJ112" s="4"/>
-      <c r="AK112" s="4"/>
-      <c r="AL112" s="4"/>
-    </row>
-    <row r="113" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I113" s="5">
         <v>117</v>
@@ -11636,35 +11153,31 @@
       <c r="AF113" s="4"/>
       <c r="AG113" s="4"/>
       <c r="AH113" s="4"/>
-      <c r="AI113" s="4"/>
-      <c r="AJ113" s="4"/>
-      <c r="AK113" s="4"/>
-      <c r="AL113" s="4"/>
-    </row>
-    <row r="114" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I114" s="5">
         <v>24</v>
@@ -11726,41 +11239,37 @@
       <c r="AF114" s="4"/>
       <c r="AG114" s="4"/>
       <c r="AH114" s="4"/>
-      <c r="AI114" s="4"/>
-      <c r="AJ114" s="4"/>
-      <c r="AK114" s="4"/>
-      <c r="AL114" s="4"/>
-    </row>
-    <row r="115" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I115" s="5">
-        <v>589</v>
-      </c>
-      <c r="J115" s="5">
-        <v>589</v>
+        <v>32</v>
+      </c>
+      <c r="I115" s="12">
+        <v>1439</v>
+      </c>
+      <c r="J115" s="12">
+        <v>1439</v>
       </c>
       <c r="K115" s="5">
         <v>0</v>
@@ -11775,10 +11284,10 @@
         <v>0</v>
       </c>
       <c r="O115" s="5">
-        <v>1</v>
+        <v>851</v>
       </c>
       <c r="P115" s="5">
-        <v>1</v>
+        <v>851</v>
       </c>
       <c r="Q115" s="5">
         <v>0</v>
@@ -11818,35 +11327,31 @@
       <c r="AF115" s="4"/>
       <c r="AG115" s="4"/>
       <c r="AH115" s="4"/>
-      <c r="AI115" s="4"/>
-      <c r="AJ115" s="4"/>
-      <c r="AK115" s="4"/>
-      <c r="AL115" s="4"/>
-    </row>
-    <row r="116" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I116" s="5">
         <v>780</v>
@@ -11910,35 +11415,31 @@
       <c r="AF116" s="4"/>
       <c r="AG116" s="4"/>
       <c r="AH116" s="4"/>
-      <c r="AI116" s="4"/>
-      <c r="AJ116" s="4"/>
-      <c r="AK116" s="4"/>
-      <c r="AL116" s="4"/>
-    </row>
-    <row r="117" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I117" s="5">
         <v>960</v>
@@ -12002,35 +11503,31 @@
       <c r="AF117" s="4"/>
       <c r="AG117" s="4"/>
       <c r="AH117" s="4"/>
-      <c r="AI117" s="4"/>
-      <c r="AJ117" s="4"/>
-      <c r="AK117" s="4"/>
-      <c r="AL117" s="4"/>
-    </row>
-    <row r="118" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="F118" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I118" s="5">
         <v>93</v>
@@ -12092,35 +11589,31 @@
       <c r="AF118" s="4"/>
       <c r="AG118" s="4"/>
       <c r="AH118" s="4"/>
-      <c r="AI118" s="4"/>
-      <c r="AJ118" s="4"/>
-      <c r="AK118" s="4"/>
-      <c r="AL118" s="4"/>
-    </row>
-    <row r="119" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I119" s="5">
         <v>29</v>
@@ -12182,18 +11675,10 @@
       <c r="AF119" s="4"/>
       <c r="AG119" s="4"/>
       <c r="AH119" s="4"/>
-      <c r="AI119" s="4"/>
-      <c r="AJ119" s="4"/>
-      <c r="AK119" s="4"/>
-      <c r="AL119" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="26">
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>

--- a/input_data/abutments_fired/abutments_fired_info.xlsx
+++ b/input_data/abutments_fired/abutments_fired_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/abutments_fired/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/abutments_fired/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2BC357-F2F0-9D4A-9763-B1E9D72306EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC735627-5297-504A-BE59-9215D27A4078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="214">
   <si>
     <t>Тип</t>
   </si>
@@ -55,40 +55,10 @@
     <t>ПРОЧИЕ СКЛАДЫ</t>
   </si>
   <si>
-    <t>ПЛАН</t>
-  </si>
-  <si>
-    <t>07 февр.</t>
-  </si>
-  <si>
-    <t>08 февр.</t>
-  </si>
-  <si>
-    <t>09 февр.</t>
-  </si>
-  <si>
-    <t>10 февр.</t>
-  </si>
-  <si>
-    <t>11 февр.</t>
-  </si>
-  <si>
-    <t>12 февр.</t>
-  </si>
-  <si>
     <t>ОСТ</t>
   </si>
   <si>
     <t>РАСХ</t>
-  </si>
-  <si>
-    <t>Кол смен</t>
-  </si>
-  <si>
-    <t>В плане</t>
-  </si>
-  <si>
-    <t>День доп2</t>
   </si>
   <si>
     <t>ОБЩ</t>
@@ -698,11 +668,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="00&quot; февр.&quot;"/>
-    <numFmt numFmtId="165" formatCode="0&quot; февр.&quot;"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -714,14 +680,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,17 +695,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
+        <fgColor rgb="FFFF7F50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE4E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7F50"/>
       </patternFill>
     </fill>
   </fills>
@@ -828,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -851,29 +806,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -886,12 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,7 +1175,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AH119"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A3"/>
@@ -1263,243 +1203,186 @@
     <col min="24" max="24" width="7.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="7.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="6.25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.75" style="1" customWidth="1"/>
-    <col min="29" max="34" width="15.25" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+    </row>
+    <row r="2" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="2" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="19" t="s">
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="16" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-    </row>
-    <row r="4" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5">
         <v>190</v>
@@ -1555,39 +1438,31 @@
       <c r="Z4" s="5">
         <v>0</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-    </row>
-    <row r="5" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5">
         <v>945</v>
@@ -1599,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
       </c>
       <c r="N5" s="5">
         <v>0</v>
@@ -1617,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="R5" s="5">
-        <v>4</v>
-      </c>
-      <c r="S5" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
       </c>
       <c r="T5" s="5">
         <v>0</v>
@@ -1643,39 +1518,31 @@
       <c r="Z5" s="5">
         <v>0</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-    </row>
-    <row r="6" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I6" s="5">
         <v>101</v>
@@ -1687,26 +1554,26 @@
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>4</v>
-      </c>
-      <c r="M6" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9"/>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="8">
-        <v>4</v>
-      </c>
-      <c r="S6" s="5">
-        <v>4</v>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
       </c>
       <c r="T6" s="5">
         <v>0</v>
@@ -1729,135 +1596,111 @@
       <c r="Z6" s="5">
         <v>0</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-    </row>
-    <row r="7" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5">
+        <v>115</v>
+      </c>
+      <c r="J7" s="5">
+        <v>115</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>70</v>
+      </c>
+      <c r="M7" s="5">
+        <v>70</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>70</v>
+      </c>
+      <c r="P7" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>67</v>
+      </c>
+      <c r="S7" s="5">
+        <v>67</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>45</v>
+      </c>
+      <c r="V7" s="5">
+        <v>45</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5">
-        <v>126</v>
-      </c>
-      <c r="J7" s="5">
-        <v>126</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>80</v>
-      </c>
-      <c r="M7" s="5">
-        <v>80</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>80</v>
-      </c>
-      <c r="P7" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>57</v>
-      </c>
-      <c r="S7" s="5">
-        <v>57</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>46</v>
-      </c>
-      <c r="V7" s="5">
-        <v>46</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>23</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>8</v>
-      </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-    </row>
-    <row r="8" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5">
         <v>39</v>
@@ -1913,39 +1756,31 @@
       <c r="Z8" s="5">
         <v>0</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-    </row>
-    <row r="9" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5">
         <v>89</v>
@@ -2001,39 +1836,31 @@
       <c r="Z9" s="5">
         <v>0</v>
       </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-    </row>
-    <row r="10" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I10" s="5">
         <v>643</v>
@@ -2045,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M10" s="5">
         <v>12</v>
       </c>
       <c r="N10" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
         <v>592</v>
@@ -2081,177 +1908,161 @@
         <v>0</v>
       </c>
       <c r="X10" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="5">
         <v>10</v>
       </c>
       <c r="Z10" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-    </row>
-    <row r="11" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1598</v>
-      </c>
-      <c r="J11" s="12">
-        <v>1598</v>
+        <v>22</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1549</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1549</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="M11" s="5">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
       </c>
-      <c r="O11" s="12">
-        <v>1315</v>
-      </c>
-      <c r="P11" s="12">
-        <v>1315</v>
+      <c r="O11" s="8">
+        <v>1212</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1212</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S11" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T11" s="5">
         <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="V11" s="5">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
       </c>
       <c r="X11" s="5">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y11" s="5">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Z11" s="5">
         <v>0</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-    </row>
-    <row r="12" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1149</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1143</v>
+        <v>22</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1142</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1136</v>
       </c>
       <c r="K12" s="5">
         <v>6</v>
       </c>
       <c r="L12" s="5">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M12" s="5">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
       </c>
       <c r="O12" s="5">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="P12" s="5">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Q12" s="5">
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S12" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T12" s="5">
         <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="V12" s="5">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="W12" s="5">
         <v>6</v>
@@ -2265,39 +2076,31 @@
       <c r="Z12" s="5">
         <v>0</v>
       </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-    </row>
-    <row r="13" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -2351,39 +2154,31 @@
       <c r="Z13" s="5">
         <v>0</v>
       </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I14" s="5">
         <v>708</v>
@@ -2439,81 +2234,73 @@
       <c r="Z14" s="5">
         <v>0</v>
       </c>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-    </row>
-    <row r="15" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I15" s="5">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J15" s="5">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K15" s="5">
         <v>1</v>
       </c>
       <c r="L15" s="5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M15" s="5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N15" s="5">
         <v>0</v>
       </c>
       <c r="O15" s="5">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="P15" s="5">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="Q15" s="5">
         <v>1</v>
       </c>
       <c r="R15" s="5">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S15" s="5">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T15" s="5">
         <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V15" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W15" s="5">
         <v>0</v>
@@ -2527,44 +2314,36 @@
       <c r="Z15" s="5">
         <v>0</v>
       </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-    </row>
-    <row r="16" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="12">
+        <v>22</v>
+      </c>
+      <c r="I16" s="8">
         <v>1146</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="8">
         <v>1146</v>
       </c>
       <c r="K16" s="5">
@@ -2579,10 +2358,10 @@
       <c r="N16" s="5">
         <v>0</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="8">
         <v>1099</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="8">
         <v>1099</v>
       </c>
       <c r="Q16" s="5">
@@ -2597,7 +2376,7 @@
       <c r="T16" s="5">
         <v>0</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="10">
         <v>47</v>
       </c>
       <c r="V16" s="5">
@@ -2606,7 +2385,7 @@
       <c r="W16" s="5">
         <v>0</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="10">
         <v>51</v>
       </c>
       <c r="Y16" s="5">
@@ -2615,39 +2394,31 @@
       <c r="Z16" s="5">
         <v>0</v>
       </c>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I17" s="5">
         <v>272</v>
@@ -2703,45 +2474,37 @@
       <c r="Z17" s="5">
         <v>1</v>
       </c>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-    </row>
-    <row r="18" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I18" s="5">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="J18" s="5">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
@@ -2774,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V18" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W18" s="5">
         <v>0</v>
@@ -2791,39 +2554,31 @@
       <c r="Z18" s="5">
         <v>0</v>
       </c>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-    </row>
-    <row r="19" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I19" s="5">
         <v>617</v>
@@ -2879,54 +2634,46 @@
       <c r="Z19" s="5">
         <v>0</v>
       </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-    </row>
-    <row r="20" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1024</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1024</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="12">
-        <v>1028</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1028</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>32</v>
-      </c>
       <c r="M20" s="5">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N20" s="5">
         <v>0</v>
@@ -2950,71 +2697,63 @@
         <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V20" s="5">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="W20" s="5">
         <v>0</v>
       </c>
       <c r="X20" s="5">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y20" s="5">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z20" s="5">
         <v>0</v>
       </c>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-    </row>
-    <row r="21" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I21" s="5">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="J21" s="5">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="K21" s="5">
         <v>8</v>
       </c>
       <c r="L21" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M21" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N21" s="5">
         <v>0</v>
@@ -3038,71 +2777,63 @@
         <v>0</v>
       </c>
       <c r="U21" s="5">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="V21" s="5">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="W21" s="5">
         <v>0</v>
       </c>
       <c r="X21" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y21" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z21" s="5">
         <v>0</v>
       </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I22" s="5">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J22" s="5">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K22" s="5">
         <v>4</v>
       </c>
       <c r="L22" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M22" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N22" s="5">
         <v>0</v>
@@ -3125,57 +2856,49 @@
       <c r="T22" s="5">
         <v>0</v>
       </c>
-      <c r="U22" s="5">
-        <v>14</v>
+      <c r="U22" s="10">
+        <v>4</v>
       </c>
       <c r="V22" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="W22" s="5">
         <v>0</v>
       </c>
-      <c r="X22" s="5">
-        <v>6</v>
+      <c r="X22" s="10">
+        <v>16</v>
       </c>
       <c r="Y22" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Z22" s="5">
         <v>0</v>
       </c>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I23" s="5">
         <v>302</v>
@@ -3231,39 +2954,31 @@
       <c r="Z23" s="5">
         <v>0</v>
       </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-    </row>
-    <row r="24" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I24" s="5">
         <v>689</v>
@@ -3319,39 +3034,31 @@
       <c r="Z24" s="5">
         <v>0</v>
       </c>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-    </row>
-    <row r="25" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I25" s="5">
         <v>741</v>
@@ -3363,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N25" s="5">
         <v>0</v>
@@ -3399,53 +3106,45 @@
         <v>0</v>
       </c>
       <c r="X25" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Z25" s="5">
         <v>0</v>
       </c>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-    </row>
-    <row r="26" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I26" s="5">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J26" s="5">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K26" s="5">
         <v>0</v>
@@ -3478,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V26" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W26" s="5">
         <v>0</v>
@@ -3495,39 +3194,31 @@
       <c r="Z26" s="5">
         <v>0</v>
       </c>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-    </row>
-    <row r="27" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I27" s="5">
         <v>212</v>
@@ -3539,10 +3230,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="5">
-        <v>6</v>
-      </c>
-      <c r="M27" s="5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
       </c>
       <c r="N27" s="5">
         <v>0</v>
@@ -3575,70 +3266,54 @@
         <v>1</v>
       </c>
       <c r="X27" s="5">
-        <v>6</v>
-      </c>
-      <c r="Y27" s="5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>0</v>
       </c>
       <c r="Z27" s="5">
         <v>0</v>
       </c>
-      <c r="AA27" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="11">
-        <v>9</v>
-      </c>
-      <c r="AF27" s="14">
+    </row>
+    <row r="28" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="5">
+        <v>118</v>
+      </c>
+      <c r="J28" s="5">
+        <v>118</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
         <v>10</v>
       </c>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-    </row>
-    <row r="28" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="5">
-        <v>128</v>
-      </c>
-      <c r="J28" s="5">
-        <v>128</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
+      <c r="M28" s="5">
+        <v>10</v>
       </c>
       <c r="N28" s="5">
         <v>0</v>
@@ -3662,56 +3337,48 @@
         <v>0</v>
       </c>
       <c r="U28" s="5">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="V28" s="5">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="W28" s="5">
         <v>0</v>
       </c>
       <c r="X28" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>10</v>
       </c>
       <c r="Z28" s="5">
         <v>0</v>
       </c>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I29" s="5">
         <v>511</v>
@@ -3767,39 +3434,31 @@
       <c r="Z29" s="5">
         <v>0</v>
       </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-    </row>
-    <row r="30" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I30" s="5">
         <v>31</v>
@@ -3811,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N30" s="5">
         <v>0</v>
@@ -3837,7 +3496,7 @@
       <c r="T30" s="5">
         <v>0</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="10">
         <v>2</v>
       </c>
       <c r="V30" s="5">
@@ -3846,48 +3505,40 @@
       <c r="W30" s="5">
         <v>0</v>
       </c>
-      <c r="X30" s="8">
-        <v>7</v>
+      <c r="X30" s="10">
+        <v>4</v>
       </c>
       <c r="Y30" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z30" s="5">
         <v>0</v>
       </c>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-    </row>
-    <row r="31" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I31" s="5">
         <v>584</v>
@@ -3943,39 +3594,31 @@
       <c r="Z31" s="5">
         <v>0</v>
       </c>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-    </row>
-    <row r="32" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I32" s="5">
         <v>576</v>
@@ -4031,39 +3674,31 @@
       <c r="Z32" s="5">
         <v>0</v>
       </c>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-    </row>
-    <row r="33" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I33" s="5">
         <v>41</v>
@@ -4119,39 +3754,31 @@
       <c r="Z33" s="5">
         <v>0</v>
       </c>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-    </row>
-    <row r="34" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I34" s="5">
         <v>657</v>
@@ -4207,39 +3834,31 @@
       <c r="Z34" s="5">
         <v>0</v>
       </c>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-    </row>
-    <row r="35" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I35" s="5">
         <v>72</v>
@@ -4295,39 +3914,31 @@
       <c r="Z35" s="5">
         <v>0</v>
       </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-    </row>
-    <row r="36" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I36" s="5">
         <v>67</v>
@@ -4381,39 +3992,31 @@
       <c r="Z36" s="5">
         <v>0</v>
       </c>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-    </row>
-    <row r="37" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I37" s="5">
         <v>59</v>
@@ -4467,72 +4070,64 @@
       <c r="Z37" s="5">
         <v>0</v>
       </c>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-    </row>
-    <row r="38" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I38" s="5">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J38" s="5">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K38" s="5">
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M38" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N38" s="5">
         <v>0</v>
       </c>
       <c r="O38" s="5">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P38" s="5">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q38" s="5">
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S38" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T38" s="5">
         <v>0</v>
@@ -4555,127 +4150,111 @@
       <c r="Z38" s="5">
         <v>0</v>
       </c>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-    </row>
-    <row r="39" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="5">
+        <v>382</v>
+      </c>
+      <c r="J39" s="5">
+        <v>382</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>20</v>
+      </c>
+      <c r="M39" s="5">
+        <v>20</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>361</v>
+      </c>
+      <c r="P39" s="5">
+        <v>361</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5">
+        <v>20</v>
+      </c>
+      <c r="S39" s="5">
+        <v>20</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>21</v>
+      </c>
+      <c r="V39" s="5">
+        <v>21</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="5">
-        <v>387</v>
-      </c>
-      <c r="J39" s="5">
-        <v>387</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>15</v>
-      </c>
-      <c r="M39" s="5">
-        <v>15</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>366</v>
-      </c>
-      <c r="P39" s="5">
-        <v>366</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>15</v>
-      </c>
-      <c r="S39" s="5">
-        <v>15</v>
-      </c>
-      <c r="T39" s="5">
-        <v>0</v>
-      </c>
-      <c r="U39" s="5">
-        <v>21</v>
-      </c>
-      <c r="V39" s="5">
-        <v>21</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-    </row>
-    <row r="40" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I40" s="5">
         <v>26</v>
@@ -4729,39 +4308,31 @@
       <c r="Z40" s="5">
         <v>0</v>
       </c>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-    </row>
-    <row r="41" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I41" s="5">
         <v>486</v>
@@ -4817,44 +4388,36 @@
       <c r="Z41" s="5">
         <v>0</v>
       </c>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-    </row>
-    <row r="42" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="12">
+        <v>22</v>
+      </c>
+      <c r="I42" s="8">
         <v>1395</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="8">
         <v>1395</v>
       </c>
       <c r="K42" s="5">
@@ -4869,10 +4432,10 @@
       <c r="N42" s="5">
         <v>0</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="8">
         <v>1308</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="8">
         <v>1308</v>
       </c>
       <c r="Q42" s="5">
@@ -4905,39 +4468,31 @@
       <c r="Z42" s="5">
         <v>0</v>
       </c>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-    </row>
-    <row r="43" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I43" s="5">
         <v>144</v>
@@ -4993,39 +4548,31 @@
       <c r="Z43" s="5">
         <v>0</v>
       </c>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-    </row>
-    <row r="44" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I44" s="5">
         <v>881</v>
@@ -5081,39 +4628,31 @@
       <c r="Z44" s="5">
         <v>0</v>
       </c>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-    </row>
-    <row r="45" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I45" s="5">
         <v>159</v>
@@ -5125,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M45" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N45" s="5">
         <v>0</v>
@@ -5143,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="5">
-        <v>10</v>
-      </c>
-      <c r="S45" s="5">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="S45" s="6">
+        <v>0</v>
       </c>
       <c r="T45" s="5">
         <v>0</v>
@@ -5169,54 +4708,46 @@
       <c r="Z45" s="5">
         <v>0</v>
       </c>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-    </row>
-    <row r="46" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I46" s="5">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J46" s="5">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K46" s="5">
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M46" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -5240,177 +4771,161 @@
         <v>0</v>
       </c>
       <c r="U46" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V46" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W46" s="5">
         <v>0</v>
       </c>
       <c r="X46" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y46" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z46" s="5">
         <v>0</v>
       </c>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-    </row>
-    <row r="47" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="12">
-        <v>1624</v>
-      </c>
-      <c r="J47" s="12">
-        <v>1573</v>
+        <v>22</v>
+      </c>
+      <c r="I47" s="8">
+        <v>1571</v>
+      </c>
+      <c r="J47" s="8">
+        <v>1520</v>
       </c>
       <c r="K47" s="5">
         <v>51</v>
       </c>
       <c r="L47" s="5">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="M47" s="5">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="N47" s="5">
-        <v>55</v>
-      </c>
-      <c r="O47" s="12">
-        <v>1160</v>
-      </c>
-      <c r="P47" s="12">
-        <v>1160</v>
+        <v>57</v>
+      </c>
+      <c r="O47" s="8">
+        <v>1071</v>
+      </c>
+      <c r="P47" s="8">
+        <v>1071</v>
       </c>
       <c r="Q47" s="5">
         <v>0</v>
       </c>
       <c r="R47" s="5">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="S47" s="5">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="T47" s="5">
         <v>40</v>
       </c>
       <c r="U47" s="5">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="V47" s="5">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="W47" s="5">
         <v>51</v>
       </c>
       <c r="X47" s="5">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="Y47" s="5">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="Z47" s="5">
-        <v>15</v>
-      </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-    </row>
-    <row r="48" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="12">
-        <v>2335</v>
-      </c>
-      <c r="J48" s="12">
-        <v>2278</v>
+        <v>22</v>
+      </c>
+      <c r="I48" s="8">
+        <v>2324</v>
+      </c>
+      <c r="J48" s="8">
+        <v>2268</v>
       </c>
       <c r="K48" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L48" s="5">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M48" s="5">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N48" s="5">
-        <v>20</v>
-      </c>
-      <c r="O48" s="12">
-        <v>1757</v>
-      </c>
-      <c r="P48" s="12">
-        <v>1750</v>
+        <v>21</v>
+      </c>
+      <c r="O48" s="8">
+        <v>1746</v>
+      </c>
+      <c r="P48" s="8">
+        <v>1740</v>
       </c>
       <c r="Q48" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R48" s="5">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="S48" s="5">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="T48" s="5">
         <v>20</v>
@@ -5425,135 +4940,119 @@
         <v>50</v>
       </c>
       <c r="X48" s="5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y48" s="5">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Z48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
-    </row>
-    <row r="49" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I49" s="5">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="J49" s="5">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="K49" s="5">
         <v>7</v>
       </c>
       <c r="L49" s="5">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M49" s="5">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="N49" s="5">
         <v>0</v>
       </c>
       <c r="O49" s="5">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P49" s="5">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q49" s="5">
         <v>2</v>
       </c>
       <c r="R49" s="5">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="S49" s="5">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T49" s="5">
         <v>0</v>
       </c>
       <c r="U49" s="5">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="V49" s="5">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="W49" s="5">
         <v>5</v>
       </c>
       <c r="X49" s="5">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Y49" s="5">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Z49" s="5">
         <v>0</v>
       </c>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-    </row>
-    <row r="50" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I50" s="5">
         <v>534</v>
@@ -5565,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M50" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
@@ -5601,62 +5100,54 @@
         <v>0</v>
       </c>
       <c r="X50" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y50" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z50" s="5">
         <v>0</v>
       </c>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
-    </row>
-    <row r="51" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I51" s="5">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J51" s="5">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K51" s="5">
         <v>0</v>
       </c>
       <c r="L51" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M51" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
@@ -5680,56 +5171,48 @@
         <v>0</v>
       </c>
       <c r="U51" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V51" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W51" s="5">
         <v>0</v>
       </c>
       <c r="X51" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y51" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z51" s="5">
         <v>0</v>
       </c>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
-    </row>
-    <row r="52" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I52" s="5">
         <v>450</v>
@@ -5741,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M52" s="5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -5777,326 +5260,294 @@
         <v>0</v>
       </c>
       <c r="X52" s="5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y52" s="5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Z52" s="5">
         <v>0</v>
       </c>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
-    </row>
-    <row r="53" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>125</v>
+        <v>35</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="5">
-        <v>153</v>
+        <v>22</v>
+      </c>
+      <c r="I53" s="10">
+        <v>83</v>
       </c>
       <c r="J53" s="5">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="K53" s="5">
         <v>4</v>
       </c>
-      <c r="L53" s="5">
-        <v>23</v>
+      <c r="L53" s="10">
+        <v>85</v>
       </c>
       <c r="M53" s="5">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
       </c>
-      <c r="O53" s="5">
-        <v>73</v>
+      <c r="O53" s="10">
+        <v>13</v>
       </c>
       <c r="P53" s="5">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="Q53" s="5">
         <v>0</v>
       </c>
-      <c r="R53" s="5">
-        <v>3</v>
+      <c r="R53" s="10">
+        <v>63</v>
       </c>
       <c r="S53" s="5">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="T53" s="5">
         <v>0</v>
       </c>
       <c r="U53" s="5">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="V53" s="5">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="W53" s="5">
         <v>4</v>
       </c>
       <c r="X53" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y53" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z53" s="5">
         <v>0</v>
       </c>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-    </row>
-    <row r="54" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I54" s="5">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J54" s="5">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="K54" s="5">
         <v>4</v>
       </c>
       <c r="L54" s="5">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M54" s="5">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N54" s="5">
         <v>0</v>
       </c>
       <c r="O54" s="5">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="P54" s="5">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="5">
         <v>0</v>
       </c>
       <c r="R54" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="S54" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="T54" s="5">
         <v>0</v>
       </c>
       <c r="U54" s="5">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="V54" s="5">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="W54" s="5">
         <v>4</v>
       </c>
       <c r="X54" s="5">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="Y54" s="5">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="Z54" s="5">
         <v>0</v>
       </c>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="4"/>
-      <c r="AH54" s="4"/>
-    </row>
-    <row r="55" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="12">
-        <v>1330</v>
-      </c>
-      <c r="J55" s="12">
-        <v>1328</v>
+        <v>22</v>
+      </c>
+      <c r="I55" s="8">
+        <v>1285</v>
+      </c>
+      <c r="J55" s="8">
+        <v>1283</v>
       </c>
       <c r="K55" s="5">
         <v>2</v>
       </c>
       <c r="L55" s="5">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="M55" s="5">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N55" s="5">
         <v>40</v>
       </c>
       <c r="O55" s="5">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="P55" s="5">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="Q55" s="5">
         <v>0</v>
       </c>
       <c r="R55" s="5">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="S55" s="5">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="T55" s="5">
         <v>0</v>
       </c>
       <c r="U55" s="5">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="V55" s="5">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="W55" s="5">
         <v>2</v>
       </c>
       <c r="X55" s="5">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Y55" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z55" s="5">
         <v>40</v>
       </c>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-    </row>
-    <row r="56" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="12">
-        <v>1196</v>
-      </c>
-      <c r="J56" s="12">
+        <v>22</v>
+      </c>
+      <c r="I56" s="8">
         <v>1193</v>
+      </c>
+      <c r="J56" s="8">
+        <v>1190</v>
       </c>
       <c r="K56" s="5">
         <v>3</v>
       </c>
       <c r="L56" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M56" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -6120,71 +5571,63 @@
         <v>0</v>
       </c>
       <c r="U56" s="5">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V56" s="5">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="W56" s="5">
         <v>3</v>
       </c>
       <c r="X56" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y56" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z56" s="5">
         <v>0</v>
       </c>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
-    </row>
-    <row r="57" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I57" s="5">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J57" s="5">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K57" s="5">
         <v>0</v>
       </c>
       <c r="L57" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M57" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N57" s="5">
         <v>0</v>
@@ -6208,56 +5651,48 @@
         <v>0</v>
       </c>
       <c r="U57" s="5">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="V57" s="5">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="W57" s="5">
         <v>0</v>
       </c>
       <c r="X57" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>10</v>
       </c>
       <c r="Z57" s="5">
         <v>0</v>
       </c>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
-    </row>
-    <row r="58" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I58" s="5">
         <v>123</v>
@@ -6313,132 +5748,116 @@
       <c r="Z58" s="5">
         <v>0</v>
       </c>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-    </row>
-    <row r="59" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I59" s="5">
-        <v>866</v>
+        <v>823</v>
       </c>
       <c r="J59" s="5">
-        <v>865</v>
+        <v>822</v>
       </c>
       <c r="K59" s="5">
         <v>1</v>
       </c>
       <c r="L59" s="5">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="M59" s="5">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="N59" s="5">
         <v>0</v>
       </c>
       <c r="O59" s="5">
-        <v>765</v>
+        <v>663</v>
       </c>
       <c r="P59" s="5">
-        <v>764</v>
+        <v>662</v>
       </c>
       <c r="Q59" s="5">
         <v>1</v>
       </c>
       <c r="R59" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S59" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T59" s="5">
         <v>0</v>
       </c>
       <c r="U59" s="5">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="V59" s="5">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="W59" s="5">
         <v>0</v>
       </c>
       <c r="X59" s="5">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="Y59" s="5">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="Z59" s="5">
         <v>0</v>
       </c>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-    </row>
-    <row r="60" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="12">
+        <v>22</v>
+      </c>
+      <c r="I60" s="8">
         <v>1449</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="8">
         <v>1445</v>
       </c>
       <c r="K60" s="5">
@@ -6453,10 +5872,10 @@
       <c r="N60" s="5">
         <v>1</v>
       </c>
-      <c r="O60" s="12">
+      <c r="O60" s="8">
         <v>1107</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="8">
         <v>1103</v>
       </c>
       <c r="Q60" s="5">
@@ -6489,54 +5908,46 @@
       <c r="Z60" s="5">
         <v>1</v>
       </c>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
-    </row>
-    <row r="61" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I61" s="5">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="J61" s="5">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="K61" s="5">
         <v>1</v>
       </c>
       <c r="L61" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M61" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N61" s="5">
         <v>0</v>
@@ -6560,56 +5971,48 @@
         <v>0</v>
       </c>
       <c r="U61" s="5">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="V61" s="5">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="W61" s="5">
         <v>0</v>
       </c>
       <c r="X61" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y61" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z61" s="5">
         <v>0</v>
       </c>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
-      <c r="AH61" s="4"/>
-    </row>
-    <row r="62" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I62" s="5">
         <v>164</v>
@@ -6665,39 +6068,31 @@
       <c r="Z62" s="5">
         <v>0</v>
       </c>
-      <c r="AA62" s="7"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-      <c r="AG62" s="4"/>
-      <c r="AH62" s="4"/>
-    </row>
-    <row r="63" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I63" s="5">
         <v>514</v>
@@ -6753,39 +6148,31 @@
       <c r="Z63" s="5">
         <v>0</v>
       </c>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
-    </row>
-    <row r="64" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I64" s="5">
         <v>164</v>
@@ -6841,168 +6228,144 @@
       <c r="Z64" s="5">
         <v>0</v>
       </c>
-      <c r="AA64" s="7"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
-    </row>
-    <row r="65" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I65" s="5">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J65" s="5">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K65" s="5">
         <v>3</v>
       </c>
       <c r="L65" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M65" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N65" s="5">
         <v>0</v>
       </c>
       <c r="O65" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P65" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q65" s="5">
         <v>3</v>
       </c>
       <c r="R65" s="5">
+        <v>8</v>
+      </c>
+      <c r="S65" s="5">
+        <v>8</v>
+      </c>
+      <c r="T65" s="5">
+        <v>0</v>
+      </c>
+      <c r="U65" s="5">
+        <v>159</v>
+      </c>
+      <c r="V65" s="5">
+        <v>159</v>
+      </c>
+      <c r="W65" s="5">
+        <v>0</v>
+      </c>
+      <c r="X65" s="5">
         <v>7</v>
       </c>
-      <c r="S65" s="5">
+      <c r="Y65" s="5">
         <v>7</v>
       </c>
-      <c r="T65" s="5">
-        <v>0</v>
-      </c>
-      <c r="U65" s="5">
-        <v>161</v>
-      </c>
-      <c r="V65" s="5">
-        <v>161</v>
-      </c>
-      <c r="W65" s="5">
-        <v>0</v>
-      </c>
-      <c r="X65" s="5">
-        <v>6</v>
-      </c>
-      <c r="Y65" s="5">
-        <v>6</v>
-      </c>
       <c r="Z65" s="5">
         <v>0</v>
       </c>
-      <c r="AA65" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB65" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="AG65" s="14">
-        <v>11</v>
-      </c>
-      <c r="AH65" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I66" s="5">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="J66" s="5">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K66" s="5">
         <v>2</v>
       </c>
       <c r="L66" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M66" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N66" s="5">
         <v>0</v>
       </c>
       <c r="O66" s="5">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="P66" s="5">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="Q66" s="5">
         <v>2</v>
       </c>
       <c r="R66" s="5">
-        <v>0</v>
-      </c>
-      <c r="S66" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="S66" s="5">
+        <v>6</v>
       </c>
       <c r="T66" s="5">
         <v>0</v>
@@ -7017,47 +6380,39 @@
         <v>0</v>
       </c>
       <c r="X66" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y66" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z66" s="5">
         <v>0</v>
       </c>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
-    </row>
-    <row r="67" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I67" s="5">
         <v>37</v>
@@ -7113,72 +6468,64 @@
       <c r="Z67" s="5">
         <v>0</v>
       </c>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-      <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
-    </row>
-    <row r="68" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I68" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J68" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" s="5">
         <v>0</v>
       </c>
       <c r="L68" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M68" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68" s="5">
         <v>0</v>
       </c>
       <c r="O68" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P68" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q68" s="5">
         <v>0</v>
       </c>
       <c r="R68" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S68" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T68" s="5">
         <v>0</v>
@@ -7201,63 +6548,55 @@
       <c r="Z68" s="5">
         <v>0</v>
       </c>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-      <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
-    </row>
-    <row r="69" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I69" s="5">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J69" s="5">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K69" s="5">
         <v>7</v>
       </c>
       <c r="L69" s="5">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M69" s="5">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N69" s="5">
         <v>0</v>
       </c>
       <c r="O69" s="5">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="P69" s="5">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="Q69" s="5">
         <v>1</v>
@@ -7272,56 +6611,48 @@
         <v>0</v>
       </c>
       <c r="U69" s="5">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="V69" s="5">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="W69" s="5">
         <v>6</v>
       </c>
       <c r="X69" s="5">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Y69" s="5">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Z69" s="5">
         <v>0</v>
       </c>
-      <c r="AA69" s="7"/>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-      <c r="AG69" s="4"/>
-      <c r="AH69" s="4"/>
-    </row>
-    <row r="70" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I70" s="5">
         <v>344</v>
@@ -7377,39 +6708,31 @@
       <c r="Z70" s="5">
         <v>0</v>
       </c>
-      <c r="AA70" s="7"/>
-      <c r="AB70" s="7"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-      <c r="AG70" s="4"/>
-      <c r="AH70" s="4"/>
-    </row>
-    <row r="71" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I71" s="5">
         <v>975</v>
@@ -7465,54 +6788,46 @@
       <c r="Z71" s="5">
         <v>0</v>
       </c>
-      <c r="AA71" s="7"/>
-      <c r="AB71" s="7"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-      <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
-    </row>
-    <row r="72" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I72" s="5">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J72" s="5">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K72" s="5">
         <v>0</v>
       </c>
       <c r="L72" s="5">
+        <v>10</v>
+      </c>
+      <c r="M72" s="5">
         <v>8</v>
-      </c>
-      <c r="M72" s="5">
-        <v>6</v>
       </c>
       <c r="N72" s="5">
         <v>2</v>
@@ -7536,61 +6851,53 @@
         <v>2</v>
       </c>
       <c r="U72" s="5">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V72" s="5">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W72" s="5">
         <v>0</v>
       </c>
       <c r="X72" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>2</v>
       </c>
       <c r="Z72" s="5">
         <v>0</v>
       </c>
-      <c r="AA72" s="7"/>
-      <c r="AB72" s="7"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
-      <c r="AG72" s="4"/>
-      <c r="AH72" s="4"/>
-    </row>
-    <row r="73" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I73" s="12">
+        <v>22</v>
+      </c>
+      <c r="I73" s="8">
         <v>1052</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="8">
         <v>1052</v>
       </c>
       <c r="K73" s="5">
@@ -7641,160 +6948,144 @@
       <c r="Z73" s="5">
         <v>0</v>
       </c>
-      <c r="AA73" s="7"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-      <c r="AG73" s="4"/>
-      <c r="AH73" s="4"/>
-    </row>
-    <row r="74" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>155</v>
+        <v>35</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="8">
+        <v>22</v>
+      </c>
+      <c r="I74" s="5">
+        <v>953</v>
+      </c>
+      <c r="J74" s="5">
+        <v>953</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>89</v>
+      </c>
+      <c r="M74" s="5">
+        <v>89</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0</v>
+      </c>
+      <c r="O74" s="5">
+        <v>880</v>
+      </c>
+      <c r="P74" s="5">
+        <v>880</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>0</v>
+      </c>
+      <c r="R74" s="5">
+        <v>64</v>
+      </c>
+      <c r="S74" s="5">
+        <v>64</v>
+      </c>
+      <c r="T74" s="5">
+        <v>0</v>
+      </c>
+      <c r="U74" s="5">
+        <v>73</v>
+      </c>
+      <c r="V74" s="5">
+        <v>73</v>
+      </c>
+      <c r="W74" s="5">
+        <v>0</v>
+      </c>
+      <c r="X74" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="5">
+        <v>127</v>
+      </c>
+      <c r="J75" s="5">
+        <v>127</v>
+      </c>
+      <c r="K75" s="5">
+        <v>0</v>
+      </c>
+      <c r="L75" s="5">
+        <v>48</v>
+      </c>
+      <c r="M75" s="5">
+        <v>48</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0</v>
+      </c>
+      <c r="O75" s="5">
+        <v>50</v>
+      </c>
+      <c r="P75" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>0</v>
+      </c>
+      <c r="R75" s="5">
         <v>37</v>
       </c>
-      <c r="J74" s="5">
+      <c r="S75" s="5">
         <v>37</v>
-      </c>
-      <c r="K74" s="5">
-        <v>0</v>
-      </c>
-      <c r="L74" s="8">
-        <v>75</v>
-      </c>
-      <c r="M74" s="5">
-        <v>75</v>
-      </c>
-      <c r="N74" s="5">
-        <v>0</v>
-      </c>
-      <c r="O74" s="8">
-        <v>14</v>
-      </c>
-      <c r="P74" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>0</v>
-      </c>
-      <c r="R74" s="8">
-        <v>44</v>
-      </c>
-      <c r="S74" s="5">
-        <v>44</v>
-      </c>
-      <c r="T74" s="5">
-        <v>0</v>
-      </c>
-      <c r="U74" s="8">
-        <v>23</v>
-      </c>
-      <c r="V74" s="5">
-        <v>23</v>
-      </c>
-      <c r="W74" s="5">
-        <v>0</v>
-      </c>
-      <c r="X74" s="8">
-        <v>31</v>
-      </c>
-      <c r="Y74" s="5">
-        <v>31</v>
-      </c>
-      <c r="Z74" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-      <c r="AG74" s="4"/>
-      <c r="AH74" s="4"/>
-    </row>
-    <row r="75" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="5">
-        <v>162</v>
-      </c>
-      <c r="J75" s="5">
-        <v>162</v>
-      </c>
-      <c r="K75" s="5">
-        <v>0</v>
-      </c>
-      <c r="L75" s="5">
-        <v>13</v>
-      </c>
-      <c r="M75" s="5">
-        <v>13</v>
-      </c>
-      <c r="N75" s="5">
-        <v>0</v>
-      </c>
-      <c r="O75" s="5">
-        <v>85</v>
-      </c>
-      <c r="P75" s="5">
-        <v>85</v>
-      </c>
-      <c r="Q75" s="5">
-        <v>0</v>
-      </c>
-      <c r="R75" s="5">
-        <v>2</v>
-      </c>
-      <c r="S75" s="5">
-        <v>2</v>
       </c>
       <c r="T75" s="5">
         <v>0</v>
@@ -7817,72 +7108,64 @@
       <c r="Z75" s="5">
         <v>0</v>
       </c>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-      <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
-    </row>
-    <row r="76" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I76" s="5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J76" s="5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K76" s="5">
         <v>0</v>
       </c>
       <c r="L76" s="5">
+        <v>10</v>
+      </c>
+      <c r="M76" s="5">
+        <v>10</v>
+      </c>
+      <c r="N76" s="5">
+        <v>0</v>
+      </c>
+      <c r="O76" s="5">
+        <v>42</v>
+      </c>
+      <c r="P76" s="5">
+        <v>42</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>0</v>
+      </c>
+      <c r="R76" s="5">
         <v>5</v>
       </c>
-      <c r="M76" s="5">
+      <c r="S76" s="5">
         <v>5</v>
-      </c>
-      <c r="N76" s="5">
-        <v>0</v>
-      </c>
-      <c r="O76" s="5">
-        <v>47</v>
-      </c>
-      <c r="P76" s="5">
-        <v>47</v>
-      </c>
-      <c r="Q76" s="5">
-        <v>0</v>
-      </c>
-      <c r="R76" s="5">
-        <v>0</v>
-      </c>
-      <c r="S76" s="6">
-        <v>0</v>
       </c>
       <c r="T76" s="5">
         <v>0</v>
@@ -7905,39 +7188,31 @@
       <c r="Z76" s="5">
         <v>0</v>
       </c>
-      <c r="AA76" s="7"/>
-      <c r="AB76" s="7"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-    </row>
-    <row r="77" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I77" s="5">
         <v>397</v>
@@ -7991,54 +7266,46 @@
       <c r="Z77" s="5">
         <v>0</v>
       </c>
-      <c r="AA77" s="7"/>
-      <c r="AB77" s="7"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-    </row>
-    <row r="78" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I78" s="5">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="J78" s="5">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="K78" s="5">
         <v>0</v>
       </c>
       <c r="L78" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M78" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N78" s="5">
         <v>0</v>
@@ -8062,71 +7329,63 @@
         <v>0</v>
       </c>
       <c r="U78" s="5">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="V78" s="5">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="W78" s="5">
         <v>0</v>
       </c>
       <c r="X78" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Y78" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z78" s="5">
         <v>0</v>
       </c>
-      <c r="AA78" s="7"/>
-      <c r="AB78" s="7"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-      <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
-    </row>
-    <row r="79" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I79" s="5">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J79" s="5">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K79" s="5">
         <v>0</v>
       </c>
       <c r="L79" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M79" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N79" s="5">
         <v>0</v>
@@ -8150,56 +7409,48 @@
         <v>0</v>
       </c>
       <c r="U79" s="5">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="V79" s="5">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="W79" s="5">
         <v>0</v>
       </c>
       <c r="X79" s="5">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Y79" s="5">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Z79" s="5">
         <v>0</v>
       </c>
-      <c r="AA79" s="7"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-      <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
-    </row>
-    <row r="80" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I80" s="5">
         <v>391</v>
@@ -8211,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="L80" s="5">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M80" s="5">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N80" s="5">
         <v>0</v>
@@ -8247,83 +7498,75 @@
         <v>0</v>
       </c>
       <c r="X80" s="5">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Y80" s="5">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Z80" s="5">
         <v>0</v>
       </c>
-      <c r="AA80" s="7"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-      <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
-    </row>
-    <row r="81" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="12">
-        <v>1017</v>
-      </c>
-      <c r="J81" s="12">
-        <v>1016</v>
+        <v>22</v>
+      </c>
+      <c r="I81" s="8">
+        <v>1013</v>
+      </c>
+      <c r="J81" s="8">
+        <v>1012</v>
       </c>
       <c r="K81" s="5">
         <v>1</v>
       </c>
       <c r="L81" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M81" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N81" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O81" s="5">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="P81" s="5">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="Q81" s="5">
         <v>1</v>
       </c>
       <c r="R81" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S81" s="6">
         <v>0</v>
       </c>
       <c r="T81" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U81" s="5">
         <v>184</v>
@@ -8335,47 +7578,39 @@
         <v>0</v>
       </c>
       <c r="X81" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y81" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z81" s="5">
         <v>0</v>
       </c>
-      <c r="AA81" s="7"/>
-      <c r="AB81" s="7"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
-    </row>
-    <row r="82" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I82" s="5">
         <v>916</v>
@@ -8431,39 +7666,31 @@
       <c r="Z82" s="5">
         <v>0</v>
       </c>
-      <c r="AA82" s="7"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-      <c r="AG82" s="4"/>
-      <c r="AH82" s="4"/>
-    </row>
-    <row r="83" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I83" s="5">
         <v>572</v>
@@ -8484,10 +7711,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="5">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="P83" s="5">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="Q83" s="5">
         <v>0</v>
@@ -8501,14 +7728,16 @@
       <c r="T83" s="5">
         <v>0</v>
       </c>
-      <c r="U83" s="8">
-        <v>0</v>
-      </c>
-      <c r="V83" s="9"/>
+      <c r="U83" s="10">
+        <v>50</v>
+      </c>
+      <c r="V83" s="5">
+        <v>50</v>
+      </c>
       <c r="W83" s="5">
         <v>0</v>
       </c>
-      <c r="X83" s="8">
+      <c r="X83" s="10">
         <v>60</v>
       </c>
       <c r="Y83" s="5">
@@ -8517,142 +7746,126 @@
       <c r="Z83" s="5">
         <v>0</v>
       </c>
-      <c r="AA83" s="7"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4"/>
-      <c r="AF83" s="4"/>
-      <c r="AG83" s="4"/>
-      <c r="AH83" s="4"/>
-    </row>
-    <row r="84" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I84" s="5">
-        <v>815</v>
+        <v>738</v>
       </c>
       <c r="J84" s="5">
-        <v>793</v>
+        <v>716</v>
       </c>
       <c r="K84" s="5">
         <v>22</v>
       </c>
       <c r="L84" s="5">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="M84" s="5">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="N84" s="5">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="O84" s="5">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="P84" s="5">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="Q84" s="5">
         <v>3</v>
       </c>
       <c r="R84" s="5">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="S84" s="5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="T84" s="5">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="U84" s="5">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="V84" s="5">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="W84" s="5">
         <v>19</v>
       </c>
       <c r="X84" s="5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Y84" s="5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Z84" s="5">
         <v>0</v>
       </c>
-      <c r="AA84" s="7"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="4"/>
-      <c r="AF84" s="4"/>
-      <c r="AG84" s="4"/>
-      <c r="AH84" s="4"/>
-    </row>
-    <row r="85" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I85" s="5">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="J85" s="5">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="K85" s="5">
         <v>0</v>
       </c>
       <c r="L85" s="5">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M85" s="5">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N85" s="5">
         <v>0</v>
@@ -8676,71 +7889,63 @@
         <v>0</v>
       </c>
       <c r="U85" s="5">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="V85" s="5">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="W85" s="5">
         <v>0</v>
       </c>
       <c r="X85" s="5">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Y85" s="5">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Z85" s="5">
         <v>0</v>
       </c>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
-      <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-      <c r="AE85" s="4"/>
-      <c r="AF85" s="4"/>
-      <c r="AG85" s="4"/>
-      <c r="AH85" s="4"/>
-    </row>
-    <row r="86" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I86" s="12">
-        <v>1231</v>
-      </c>
-      <c r="J86" s="12">
-        <v>1231</v>
+        <v>22</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1230</v>
+      </c>
+      <c r="J86" s="8">
+        <v>1230</v>
       </c>
       <c r="K86" s="5">
         <v>0</v>
       </c>
       <c r="L86" s="5">
+        <v>2</v>
+      </c>
+      <c r="M86" s="5">
         <v>1</v>
-      </c>
-      <c r="M86" s="6">
-        <v>0</v>
       </c>
       <c r="N86" s="5">
         <v>1</v>
@@ -8764,80 +7969,72 @@
         <v>0</v>
       </c>
       <c r="U86" s="5">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V86" s="5">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W86" s="5">
         <v>0</v>
       </c>
       <c r="X86" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y86" s="5">
         <v>1</v>
-      </c>
-      <c r="Y86" s="6">
-        <v>0</v>
       </c>
       <c r="Z86" s="5">
         <v>1</v>
       </c>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="4"/>
-      <c r="AF86" s="4"/>
-      <c r="AG86" s="4"/>
-      <c r="AH86" s="4"/>
-    </row>
-    <row r="87" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I87" s="5">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J87" s="5">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K87" s="5">
         <v>1</v>
       </c>
       <c r="L87" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M87" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N87" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O87" s="5">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="P87" s="5">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q87" s="5">
         <v>1</v>
@@ -8861,71 +8058,63 @@
         <v>0</v>
       </c>
       <c r="X87" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y87" s="5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-      <c r="AG87" s="4"/>
-      <c r="AH87" s="4"/>
-    </row>
-    <row r="88" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="5">
+        <v>390</v>
+      </c>
+      <c r="J88" s="5">
+        <v>390</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0</v>
+      </c>
+      <c r="L88" s="5">
         <v>26</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I88" s="5">
-        <v>426</v>
-      </c>
-      <c r="J88" s="5">
-        <v>426</v>
-      </c>
-      <c r="K88" s="5">
-        <v>0</v>
-      </c>
-      <c r="L88" s="5">
-        <v>10</v>
-      </c>
       <c r="M88" s="5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N88" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O88" s="5">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P88" s="5">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q88" s="5">
         <v>0</v>
@@ -8940,56 +8129,48 @@
         <v>0</v>
       </c>
       <c r="U88" s="5">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="V88" s="5">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="W88" s="5">
         <v>0</v>
       </c>
       <c r="X88" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="Y88" s="5">
+        <v>11</v>
       </c>
       <c r="Z88" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="4"/>
-      <c r="AF88" s="4"/>
-      <c r="AG88" s="4"/>
-      <c r="AH88" s="4"/>
-    </row>
-    <row r="89" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I89" s="5">
         <v>114</v>
@@ -9012,7 +8193,7 @@
       <c r="O89" s="5">
         <v>1</v>
       </c>
-      <c r="P89" s="9"/>
+      <c r="P89" s="12"/>
       <c r="Q89" s="5">
         <v>1</v>
       </c>
@@ -9043,39 +8224,31 @@
       <c r="Z89" s="5">
         <v>0</v>
       </c>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
-      <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-      <c r="AE89" s="4"/>
-      <c r="AF89" s="4"/>
-      <c r="AG89" s="4"/>
-      <c r="AH89" s="4"/>
-    </row>
-    <row r="90" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I90" s="5">
         <v>610</v>
@@ -9131,39 +8304,31 @@
       <c r="Z90" s="5">
         <v>1</v>
       </c>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
-      <c r="AE90" s="4"/>
-      <c r="AF90" s="4"/>
-      <c r="AG90" s="4"/>
-      <c r="AH90" s="4"/>
-    </row>
-    <row r="91" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I91" s="5">
         <v>23</v>
@@ -9217,145 +8382,129 @@
       <c r="Z91" s="5">
         <v>0</v>
       </c>
-      <c r="AA91" s="7"/>
-      <c r="AB91" s="7"/>
-      <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
-      <c r="AE91" s="4"/>
-      <c r="AF91" s="4"/>
-      <c r="AG91" s="4"/>
-      <c r="AH91" s="4"/>
-    </row>
-    <row r="92" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I92" s="12">
-        <v>2193</v>
-      </c>
-      <c r="J92" s="12">
-        <v>2192</v>
+        <v>22</v>
+      </c>
+      <c r="I92" s="8">
+        <v>2180</v>
+      </c>
+      <c r="J92" s="8">
+        <v>2179</v>
       </c>
       <c r="K92" s="5">
         <v>1</v>
       </c>
       <c r="L92" s="5">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M92" s="5">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N92" s="5">
         <v>8</v>
       </c>
-      <c r="O92" s="12">
-        <v>1801</v>
-      </c>
-      <c r="P92" s="12">
-        <v>1801</v>
+      <c r="O92" s="8">
+        <v>1795</v>
+      </c>
+      <c r="P92" s="8">
+        <v>1795</v>
       </c>
       <c r="Q92" s="5">
         <v>0</v>
       </c>
       <c r="R92" s="5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="S92" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T92" s="5">
         <v>8</v>
       </c>
       <c r="U92" s="5">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="V92" s="5">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="W92" s="5">
         <v>1</v>
       </c>
       <c r="X92" s="5">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="Y92" s="5">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="Z92" s="5">
         <v>0</v>
       </c>
-      <c r="AA92" s="7"/>
-      <c r="AB92" s="7"/>
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4"/>
-      <c r="AF92" s="4"/>
-      <c r="AG92" s="4"/>
-      <c r="AH92" s="4"/>
-    </row>
-    <row r="93" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I93" s="5">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="J93" s="5">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="K93" s="5">
         <v>2</v>
       </c>
       <c r="L93" s="5">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="M93" s="5">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N93" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="O93" s="5">
         <v>719</v>
@@ -9367,329 +8516,297 @@
         <v>0</v>
       </c>
       <c r="R93" s="5">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="S93" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T93" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="U93" s="5">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="V93" s="5">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="W93" s="5">
         <v>2</v>
       </c>
       <c r="X93" s="5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Y93" s="5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Z93" s="5">
         <v>0</v>
       </c>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="4"/>
-      <c r="AD93" s="4"/>
-      <c r="AE93" s="4"/>
-      <c r="AF93" s="4"/>
-      <c r="AG93" s="4"/>
-      <c r="AH93" s="4"/>
-    </row>
-    <row r="94" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I94" s="12">
-        <v>1983</v>
-      </c>
-      <c r="J94" s="12">
-        <v>1973</v>
+        <v>22</v>
+      </c>
+      <c r="I94" s="8">
+        <v>1888</v>
+      </c>
+      <c r="J94" s="8">
+        <v>1878</v>
       </c>
       <c r="K94" s="5">
         <v>10</v>
       </c>
       <c r="L94" s="5">
-        <v>618</v>
+        <v>564</v>
       </c>
       <c r="M94" s="5">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="N94" s="5">
-        <v>50</v>
-      </c>
-      <c r="O94" s="12">
-        <v>1392</v>
-      </c>
-      <c r="P94" s="12">
-        <v>1382</v>
+        <v>10</v>
+      </c>
+      <c r="O94" s="8">
+        <v>1135</v>
+      </c>
+      <c r="P94" s="8">
+        <v>1125</v>
       </c>
       <c r="Q94" s="5">
         <v>10</v>
       </c>
       <c r="R94" s="5">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="S94" s="5">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="T94" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U94" s="5">
-        <v>591</v>
+        <v>753</v>
       </c>
       <c r="V94" s="5">
-        <v>591</v>
+        <v>753</v>
       </c>
       <c r="W94" s="5">
         <v>0</v>
       </c>
       <c r="X94" s="5">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="Y94" s="5">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="Z94" s="5">
         <v>10</v>
       </c>
-      <c r="AA94" s="7"/>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="4"/>
-      <c r="AD94" s="4"/>
-      <c r="AE94" s="4"/>
-      <c r="AF94" s="4"/>
-      <c r="AG94" s="4"/>
-      <c r="AH94" s="4"/>
-    </row>
-    <row r="95" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I95" s="12">
-        <v>1600</v>
-      </c>
-      <c r="J95" s="12">
-        <v>1594</v>
+        <v>22</v>
+      </c>
+      <c r="I95" s="8">
+        <v>1531</v>
+      </c>
+      <c r="J95" s="8">
+        <v>1525</v>
       </c>
       <c r="K95" s="5">
         <v>6</v>
       </c>
       <c r="L95" s="5">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="M95" s="5">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N95" s="5">
-        <v>52</v>
-      </c>
-      <c r="O95" s="12">
-        <v>1115</v>
-      </c>
-      <c r="P95" s="12">
-        <v>1115</v>
+        <v>2</v>
+      </c>
+      <c r="O95" s="8">
+        <v>1056</v>
+      </c>
+      <c r="P95" s="8">
+        <v>1056</v>
       </c>
       <c r="Q95" s="5">
         <v>0</v>
       </c>
       <c r="R95" s="5">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="S95" s="5">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="T95" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U95" s="5">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="V95" s="5">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="W95" s="5">
         <v>6</v>
       </c>
       <c r="X95" s="5">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Y95" s="5">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z95" s="5">
         <v>2</v>
       </c>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="4"/>
-      <c r="AD95" s="4"/>
-      <c r="AE95" s="4"/>
-      <c r="AF95" s="4"/>
-      <c r="AG95" s="4"/>
-      <c r="AH95" s="4"/>
-    </row>
-    <row r="96" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I96" s="12">
-        <v>1821</v>
-      </c>
-      <c r="J96" s="12">
-        <v>1821</v>
+        <v>22</v>
+      </c>
+      <c r="I96" s="8">
+        <v>1812</v>
+      </c>
+      <c r="J96" s="8">
+        <v>1812</v>
       </c>
       <c r="K96" s="5">
         <v>0</v>
       </c>
       <c r="L96" s="5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M96" s="5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N96" s="5">
         <v>24</v>
       </c>
-      <c r="O96" s="12">
+      <c r="O96" s="8">
         <v>1459</v>
       </c>
-      <c r="P96" s="12">
+      <c r="P96" s="8">
         <v>1459</v>
       </c>
       <c r="Q96" s="5">
         <v>0</v>
       </c>
       <c r="R96" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S96" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T96" s="5">
         <v>10</v>
       </c>
       <c r="U96" s="5">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="V96" s="5">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="W96" s="5">
         <v>0</v>
       </c>
       <c r="X96" s="5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y96" s="5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z96" s="5">
         <v>14</v>
       </c>
-      <c r="AA96" s="7"/>
-      <c r="AB96" s="7"/>
-      <c r="AC96" s="4"/>
-      <c r="AD96" s="4"/>
-      <c r="AE96" s="4"/>
-      <c r="AF96" s="4"/>
-      <c r="AG96" s="4"/>
-      <c r="AH96" s="4"/>
-    </row>
-    <row r="97" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I97" s="5">
         <v>424</v>
@@ -9701,10 +8818,10 @@
         <v>0</v>
       </c>
       <c r="L97" s="5">
-        <v>20</v>
-      </c>
-      <c r="M97" s="5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="M97" s="6">
+        <v>0</v>
       </c>
       <c r="N97" s="5">
         <v>0</v>
@@ -9719,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="R97" s="5">
-        <v>20</v>
-      </c>
-      <c r="S97" s="5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="S97" s="6">
+        <v>0</v>
       </c>
       <c r="T97" s="5">
         <v>0</v>
@@ -9745,39 +8862,31 @@
       <c r="Z97" s="5">
         <v>0</v>
       </c>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
-      <c r="AC97" s="4"/>
-      <c r="AD97" s="4"/>
-      <c r="AE97" s="4"/>
-      <c r="AF97" s="4"/>
-      <c r="AG97" s="4"/>
-      <c r="AH97" s="4"/>
-    </row>
-    <row r="98" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I98" s="5">
         <v>696</v>
@@ -9833,39 +8942,31 @@
       <c r="Z98" s="5">
         <v>0</v>
       </c>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="7"/>
-      <c r="AC98" s="4"/>
-      <c r="AD98" s="4"/>
-      <c r="AE98" s="4"/>
-      <c r="AF98" s="4"/>
-      <c r="AG98" s="4"/>
-      <c r="AH98" s="4"/>
-    </row>
-    <row r="99" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I99" s="5">
         <v>31</v>
@@ -9919,39 +9020,31 @@
       <c r="Z99" s="5">
         <v>0</v>
       </c>
-      <c r="AA99" s="7"/>
-      <c r="AB99" s="7"/>
-      <c r="AC99" s="4"/>
-      <c r="AD99" s="4"/>
-      <c r="AE99" s="4"/>
-      <c r="AF99" s="4"/>
-      <c r="AG99" s="4"/>
-      <c r="AH99" s="4"/>
-    </row>
-    <row r="100" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I100" s="5">
         <v>449</v>
@@ -10007,54 +9100,46 @@
       <c r="Z100" s="5">
         <v>0</v>
       </c>
-      <c r="AA100" s="7"/>
-      <c r="AB100" s="7"/>
-      <c r="AC100" s="4"/>
-      <c r="AD100" s="4"/>
-      <c r="AE100" s="4"/>
-      <c r="AF100" s="4"/>
-      <c r="AG100" s="4"/>
-      <c r="AH100" s="4"/>
-    </row>
-    <row r="101" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I101" s="5">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J101" s="5">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K101" s="5">
         <v>2</v>
       </c>
       <c r="L101" s="5">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M101" s="5">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N101" s="5">
         <v>0</v>
@@ -10078,71 +9163,63 @@
         <v>0</v>
       </c>
       <c r="U101" s="5">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="V101" s="5">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="W101" s="5">
         <v>0</v>
       </c>
       <c r="X101" s="5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y101" s="5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Z101" s="5">
         <v>0</v>
       </c>
-      <c r="AA101" s="7"/>
-      <c r="AB101" s="7"/>
-      <c r="AC101" s="4"/>
-      <c r="AD101" s="4"/>
-      <c r="AE101" s="4"/>
-      <c r="AF101" s="4"/>
-      <c r="AG101" s="4"/>
-      <c r="AH101" s="4"/>
-    </row>
-    <row r="102" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I102" s="5">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="J102" s="5">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="K102" s="5">
         <v>0</v>
       </c>
       <c r="L102" s="5">
-        <v>0</v>
-      </c>
-      <c r="M102" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="M102" s="5">
+        <v>6</v>
       </c>
       <c r="N102" s="5">
         <v>0</v>
@@ -10166,177 +9243,161 @@
         <v>0</v>
       </c>
       <c r="U102" s="5">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V102" s="5">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="W102" s="5">
         <v>0</v>
       </c>
       <c r="X102" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Y102" s="5">
+        <v>6</v>
       </c>
       <c r="Z102" s="5">
         <v>0</v>
       </c>
-      <c r="AA102" s="7"/>
-      <c r="AB102" s="7"/>
-      <c r="AC102" s="4"/>
-      <c r="AD102" s="4"/>
-      <c r="AE102" s="4"/>
-      <c r="AF102" s="4"/>
-      <c r="AG102" s="4"/>
-      <c r="AH102" s="4"/>
-    </row>
-    <row r="103" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I103" s="5">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J103" s="5">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="K103" s="5">
         <v>2</v>
       </c>
       <c r="L103" s="5">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="M103" s="5">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="N103" s="5">
         <v>0</v>
       </c>
       <c r="O103" s="5">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="P103" s="5">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="Q103" s="5">
         <v>2</v>
       </c>
       <c r="R103" s="5">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="S103" s="5">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="T103" s="5">
         <v>0</v>
       </c>
-      <c r="U103" s="8">
-        <v>18</v>
+      <c r="U103" s="10">
+        <v>16</v>
       </c>
       <c r="V103" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W103" s="5">
         <v>0</v>
       </c>
-      <c r="X103" s="8">
-        <v>38</v>
+      <c r="X103" s="10">
+        <v>40</v>
       </c>
       <c r="Y103" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z103" s="5">
         <v>0</v>
       </c>
-      <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
-      <c r="AC103" s="4"/>
-      <c r="AD103" s="4"/>
-      <c r="AE103" s="4"/>
-      <c r="AF103" s="4"/>
-      <c r="AG103" s="4"/>
-      <c r="AH103" s="4"/>
-    </row>
-    <row r="104" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I104" s="12">
-        <v>1090</v>
-      </c>
-      <c r="J104" s="12">
-        <v>1090</v>
+        <v>22</v>
+      </c>
+      <c r="I104" s="8">
+        <v>1085</v>
+      </c>
+      <c r="J104" s="8">
+        <v>1085</v>
       </c>
       <c r="K104" s="5">
         <v>0</v>
       </c>
       <c r="L104" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M104" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N104" s="5">
         <v>0</v>
       </c>
       <c r="O104" s="5">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="P104" s="5">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Q104" s="5">
         <v>0</v>
       </c>
       <c r="R104" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S104" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T104" s="5">
         <v>0</v>
@@ -10359,39 +9420,31 @@
       <c r="Z104" s="5">
         <v>0</v>
       </c>
-      <c r="AA104" s="7"/>
-      <c r="AB104" s="7"/>
-      <c r="AC104" s="4"/>
-      <c r="AD104" s="4"/>
-      <c r="AE104" s="4"/>
-      <c r="AF104" s="4"/>
-      <c r="AG104" s="4"/>
-      <c r="AH104" s="4"/>
-    </row>
-    <row r="105" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -10445,44 +9498,36 @@
       <c r="Z105" s="5">
         <v>0</v>
       </c>
-      <c r="AA105" s="7"/>
-      <c r="AB105" s="7"/>
-      <c r="AC105" s="4"/>
-      <c r="AD105" s="4"/>
-      <c r="AE105" s="4"/>
-      <c r="AF105" s="4"/>
-      <c r="AG105" s="4"/>
-      <c r="AH105" s="4"/>
-    </row>
-    <row r="106" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I106" s="12">
+        <v>22</v>
+      </c>
+      <c r="I106" s="8">
         <v>1209</v>
       </c>
-      <c r="J106" s="12">
+      <c r="J106" s="8">
         <v>1209</v>
       </c>
       <c r="K106" s="5">
@@ -10497,10 +9542,10 @@
       <c r="N106" s="5">
         <v>0</v>
       </c>
-      <c r="O106" s="12">
+      <c r="O106" s="8">
         <v>1150</v>
       </c>
-      <c r="P106" s="12">
+      <c r="P106" s="8">
         <v>1150</v>
       </c>
       <c r="Q106" s="5">
@@ -10533,39 +9578,31 @@
       <c r="Z106" s="5">
         <v>0</v>
       </c>
-      <c r="AA106" s="7"/>
-      <c r="AB106" s="7"/>
-      <c r="AC106" s="4"/>
-      <c r="AD106" s="4"/>
-      <c r="AE106" s="4"/>
-      <c r="AF106" s="4"/>
-      <c r="AG106" s="4"/>
-      <c r="AH106" s="4"/>
-    </row>
-    <row r="107" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I107" s="5">
         <v>936</v>
@@ -10621,39 +9658,31 @@
       <c r="Z107" s="5">
         <v>0</v>
       </c>
-      <c r="AA107" s="7"/>
-      <c r="AB107" s="7"/>
-      <c r="AC107" s="4"/>
-      <c r="AD107" s="4"/>
-      <c r="AE107" s="4"/>
-      <c r="AF107" s="4"/>
-      <c r="AG107" s="4"/>
-      <c r="AH107" s="4"/>
-    </row>
-    <row r="108" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I108" s="5">
         <v>422</v>
@@ -10709,39 +9738,31 @@
       <c r="Z108" s="5">
         <v>0</v>
       </c>
-      <c r="AA108" s="7"/>
-      <c r="AB108" s="7"/>
-      <c r="AC108" s="4"/>
-      <c r="AD108" s="4"/>
-      <c r="AE108" s="4"/>
-      <c r="AF108" s="4"/>
-      <c r="AG108" s="4"/>
-      <c r="AH108" s="4"/>
-    </row>
-    <row r="109" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I109" s="5">
         <v>486</v>
@@ -10797,39 +9818,31 @@
       <c r="Z109" s="5">
         <v>0</v>
       </c>
-      <c r="AA109" s="7"/>
-      <c r="AB109" s="7"/>
-      <c r="AC109" s="4"/>
-      <c r="AD109" s="4"/>
-      <c r="AE109" s="4"/>
-      <c r="AF109" s="4"/>
-      <c r="AG109" s="4"/>
-      <c r="AH109" s="4"/>
-    </row>
-    <row r="110" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I110" s="5">
         <v>225</v>
@@ -10841,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="L110" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M110" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N110" s="5">
         <v>0</v>
@@ -10877,47 +9890,39 @@
         <v>0</v>
       </c>
       <c r="X110" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y110" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z110" s="5">
         <v>0</v>
       </c>
-      <c r="AA110" s="7"/>
-      <c r="AB110" s="7"/>
-      <c r="AC110" s="4"/>
-      <c r="AD110" s="4"/>
-      <c r="AE110" s="4"/>
-      <c r="AF110" s="4"/>
-      <c r="AG110" s="4"/>
-      <c r="AH110" s="4"/>
-    </row>
-    <row r="111" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I111" s="5">
         <v>137</v>
@@ -10971,39 +9976,31 @@
       <c r="Z111" s="5">
         <v>0</v>
       </c>
-      <c r="AA111" s="7"/>
-      <c r="AB111" s="7"/>
-      <c r="AC111" s="4"/>
-      <c r="AD111" s="4"/>
-      <c r="AE111" s="4"/>
-      <c r="AF111" s="4"/>
-      <c r="AG111" s="4"/>
-      <c r="AH111" s="4"/>
-    </row>
-    <row r="112" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I112" s="5">
         <v>41</v>
@@ -11015,10 +10012,10 @@
         <v>1</v>
       </c>
       <c r="L112" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M112" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N112" s="5">
         <v>4</v>
@@ -11041,7 +10038,7 @@
       <c r="T112" s="5">
         <v>0</v>
       </c>
-      <c r="U112" s="8">
+      <c r="U112" s="10">
         <v>2</v>
       </c>
       <c r="V112" s="5">
@@ -11050,48 +10047,40 @@
       <c r="W112" s="5">
         <v>0</v>
       </c>
-      <c r="X112" s="8">
-        <v>8</v>
+      <c r="X112" s="10">
+        <v>5</v>
       </c>
       <c r="Y112" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z112" s="5">
         <v>4</v>
       </c>
-      <c r="AA112" s="7"/>
-      <c r="AB112" s="7"/>
-      <c r="AC112" s="4"/>
-      <c r="AD112" s="4"/>
-      <c r="AE112" s="4"/>
-      <c r="AF112" s="4"/>
-      <c r="AG112" s="4"/>
-      <c r="AH112" s="4"/>
-    </row>
-    <row r="113" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I113" s="5">
         <v>117</v>
@@ -11145,39 +10134,31 @@
       <c r="Z113" s="5">
         <v>0</v>
       </c>
-      <c r="AA113" s="7"/>
-      <c r="AB113" s="7"/>
-      <c r="AC113" s="4"/>
-      <c r="AD113" s="4"/>
-      <c r="AE113" s="4"/>
-      <c r="AF113" s="4"/>
-      <c r="AG113" s="4"/>
-      <c r="AH113" s="4"/>
-    </row>
-    <row r="114" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I114" s="5">
         <v>24</v>
@@ -11231,45 +10212,37 @@
       <c r="Z114" s="5">
         <v>0</v>
       </c>
-      <c r="AA114" s="7"/>
-      <c r="AB114" s="7"/>
-      <c r="AC114" s="4"/>
-      <c r="AD114" s="4"/>
-      <c r="AE114" s="4"/>
-      <c r="AF114" s="4"/>
-      <c r="AG114" s="4"/>
-      <c r="AH114" s="4"/>
-    </row>
-    <row r="115" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I115" s="12">
-        <v>1439</v>
-      </c>
-      <c r="J115" s="12">
-        <v>1439</v>
+        <v>22</v>
+      </c>
+      <c r="I115" s="8">
+        <v>1954</v>
+      </c>
+      <c r="J115" s="8">
+        <v>1954</v>
       </c>
       <c r="K115" s="5">
         <v>0</v>
@@ -11283,11 +10256,11 @@
       <c r="N115" s="5">
         <v>0</v>
       </c>
-      <c r="O115" s="5">
-        <v>851</v>
-      </c>
-      <c r="P115" s="5">
-        <v>851</v>
+      <c r="O115" s="8">
+        <v>1366</v>
+      </c>
+      <c r="P115" s="8">
+        <v>1366</v>
       </c>
       <c r="Q115" s="5">
         <v>0</v>
@@ -11319,39 +10292,31 @@
       <c r="Z115" s="5">
         <v>0</v>
       </c>
-      <c r="AA115" s="7"/>
-      <c r="AB115" s="7"/>
-      <c r="AC115" s="4"/>
-      <c r="AD115" s="4"/>
-      <c r="AE115" s="4"/>
-      <c r="AF115" s="4"/>
-      <c r="AG115" s="4"/>
-      <c r="AH115" s="4"/>
-    </row>
-    <row r="116" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I116" s="5">
         <v>780</v>
@@ -11407,39 +10372,31 @@
       <c r="Z116" s="5">
         <v>0</v>
       </c>
-      <c r="AA116" s="7"/>
-      <c r="AB116" s="7"/>
-      <c r="AC116" s="4"/>
-      <c r="AD116" s="4"/>
-      <c r="AE116" s="4"/>
-      <c r="AF116" s="4"/>
-      <c r="AG116" s="4"/>
-      <c r="AH116" s="4"/>
-    </row>
-    <row r="117" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I117" s="5">
         <v>960</v>
@@ -11495,39 +10452,31 @@
       <c r="Z117" s="5">
         <v>0</v>
       </c>
-      <c r="AA117" s="7"/>
-      <c r="AB117" s="7"/>
-      <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="4"/>
-      <c r="AF117" s="4"/>
-      <c r="AG117" s="4"/>
-      <c r="AH117" s="4"/>
-    </row>
-    <row r="118" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I118" s="5">
         <v>93</v>
@@ -11581,39 +10530,31 @@
       <c r="Z118" s="5">
         <v>0</v>
       </c>
-      <c r="AA118" s="7"/>
-      <c r="AB118" s="7"/>
-      <c r="AC118" s="4"/>
-      <c r="AD118" s="4"/>
-      <c r="AE118" s="4"/>
-      <c r="AF118" s="4"/>
-      <c r="AG118" s="4"/>
-      <c r="AH118" s="4"/>
-    </row>
-    <row r="119" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I119" s="5">
         <v>29</v>
@@ -11667,33 +10608,16 @@
       <c r="Z119" s="5">
         <v>0</v>
       </c>
-      <c r="AA119" s="7"/>
-      <c r="AB119" s="7"/>
-      <c r="AC119" s="4"/>
-      <c r="AD119" s="4"/>
-      <c r="AE119" s="4"/>
-      <c r="AF119" s="4"/>
-      <c r="AG119" s="4"/>
-      <c r="AH119" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
+  <mergeCells count="17">
     <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
